--- a/data/Web_MEM_MGU/2023_10_mem_mgu.xlsx
+++ b/data/Web_MEM_MGU/2023_10_mem_mgu.xlsx
@@ -2673,7 +2673,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2">
-        <v>1696118400</v>
+        <v>1696107600</v>
       </c>
       <c r="B2" t="s">
         <v>10</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1696122000</v>
+        <v>1696111200</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -2737,7 +2737,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1696122000</v>
+        <v>1696111200</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -2769,7 +2769,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>1696125600</v>
+        <v>1696114800</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1696125600</v>
+        <v>1696114800</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>1696129200</v>
+        <v>1696118400</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -2865,7 +2865,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>1696129200</v>
+        <v>1696118400</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
@@ -2897,7 +2897,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>1696132800</v>
+        <v>1696122000</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -2929,7 +2929,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>1696132800</v>
+        <v>1696122000</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11">
-        <v>1696136400</v>
+        <v>1696125600</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -2993,7 +2993,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12">
-        <v>1696140000</v>
+        <v>1696129200</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13">
-        <v>1696143600</v>
+        <v>1696132800</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -3057,7 +3057,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14">
-        <v>1696147200</v>
+        <v>1696136400</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -3089,7 +3089,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15">
-        <v>1696150800</v>
+        <v>1696140000</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -3121,7 +3121,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16">
-        <v>1696154400</v>
+        <v>1696143600</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -3153,7 +3153,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>1696158000</v>
+        <v>1696147200</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>1696161600</v>
+        <v>1696150800</v>
       </c>
       <c r="B18" t="s">
         <v>22</v>
@@ -3217,7 +3217,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19">
-        <v>1696165200</v>
+        <v>1696154400</v>
       </c>
       <c r="B19" t="s">
         <v>23</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20">
-        <v>1696168800</v>
+        <v>1696158000</v>
       </c>
       <c r="B20" t="s">
         <v>24</v>
@@ -3281,7 +3281,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21">
-        <v>1696172400</v>
+        <v>1696161600</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -3313,7 +3313,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22">
-        <v>1696176000</v>
+        <v>1696165200</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -3345,7 +3345,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23">
-        <v>1696179600</v>
+        <v>1696168800</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24">
-        <v>1696183200</v>
+        <v>1696172400</v>
       </c>
       <c r="B24" t="s">
         <v>28</v>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25">
-        <v>1696186800</v>
+        <v>1696176000</v>
       </c>
       <c r="B25" t="s">
         <v>29</v>
@@ -3441,7 +3441,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26">
-        <v>1696190400</v>
+        <v>1696179600</v>
       </c>
       <c r="B26" t="s">
         <v>30</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27">
-        <v>1696194000</v>
+        <v>1696183200</v>
       </c>
       <c r="B27" t="s">
         <v>31</v>
@@ -3505,7 +3505,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28">
-        <v>1696194000</v>
+        <v>1696183200</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
@@ -3537,7 +3537,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29">
-        <v>1696197600</v>
+        <v>1696186800</v>
       </c>
       <c r="B29" t="s">
         <v>32</v>
@@ -3569,7 +3569,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30">
-        <v>1696201200</v>
+        <v>1696190400</v>
       </c>
       <c r="B30" t="s">
         <v>33</v>
@@ -3601,7 +3601,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31">
-        <v>1696204800</v>
+        <v>1696194000</v>
       </c>
       <c r="B31" t="s">
         <v>34</v>
@@ -3633,7 +3633,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32">
-        <v>1696208400</v>
+        <v>1696197600</v>
       </c>
       <c r="B32" t="s">
         <v>35</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33">
-        <v>1696208400</v>
+        <v>1696197600</v>
       </c>
       <c r="B33" t="s">
         <v>35</v>
@@ -3697,7 +3697,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34">
-        <v>1696212000</v>
+        <v>1696201200</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
@@ -3729,7 +3729,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35">
-        <v>1696215600</v>
+        <v>1696204800</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
@@ -3761,7 +3761,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36">
-        <v>1696219200</v>
+        <v>1696208400</v>
       </c>
       <c r="B36" t="s">
         <v>38</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37">
-        <v>1696222800</v>
+        <v>1696212000</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
@@ -3825,7 +3825,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38">
-        <v>1696226400</v>
+        <v>1696215600</v>
       </c>
       <c r="B38" t="s">
         <v>40</v>
@@ -3857,7 +3857,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39">
-        <v>1696230000</v>
+        <v>1696219200</v>
       </c>
       <c r="B39" t="s">
         <v>41</v>
@@ -3889,7 +3889,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40">
-        <v>1696233600</v>
+        <v>1696222800</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41">
-        <v>1696237200</v>
+        <v>1696226400</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -3953,7 +3953,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42">
-        <v>1696240800</v>
+        <v>1696230000</v>
       </c>
       <c r="B42" t="s">
         <v>44</v>
@@ -3985,7 +3985,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43">
-        <v>1696244400</v>
+        <v>1696233600</v>
       </c>
       <c r="B43" t="s">
         <v>45</v>
@@ -4017,7 +4017,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44">
-        <v>1696248000</v>
+        <v>1696237200</v>
       </c>
       <c r="B44" t="s">
         <v>46</v>
@@ -4049,7 +4049,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45">
-        <v>1696251600</v>
+        <v>1696240800</v>
       </c>
       <c r="B45" t="s">
         <v>47</v>
@@ -4081,7 +4081,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46">
-        <v>1696255200</v>
+        <v>1696244400</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
@@ -4113,7 +4113,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47">
-        <v>1696258800</v>
+        <v>1696248000</v>
       </c>
       <c r="B47" t="s">
         <v>49</v>
@@ -4145,7 +4145,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48">
-        <v>1696262400</v>
+        <v>1696251600</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49">
-        <v>1696266000</v>
+        <v>1696255200</v>
       </c>
       <c r="B49" t="s">
         <v>51</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50">
-        <v>1696269600</v>
+        <v>1696258800</v>
       </c>
       <c r="B50" t="s">
         <v>52</v>
@@ -4241,7 +4241,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51">
-        <v>1696273200</v>
+        <v>1696262400</v>
       </c>
       <c r="B51" t="s">
         <v>53</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52">
-        <v>1696276800</v>
+        <v>1696266000</v>
       </c>
       <c r="B52" t="s">
         <v>54</v>
@@ -4305,7 +4305,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53">
-        <v>1696280400</v>
+        <v>1696269600</v>
       </c>
       <c r="B53" t="s">
         <v>55</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54">
-        <v>1696284000</v>
+        <v>1696273200</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -4369,7 +4369,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55">
-        <v>1696284000</v>
+        <v>1696273200</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
@@ -4401,7 +4401,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56">
-        <v>1696287600</v>
+        <v>1696276800</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57">
-        <v>1696291200</v>
+        <v>1696280400</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
@@ -4465,7 +4465,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58">
-        <v>1696294800</v>
+        <v>1696284000</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59">
-        <v>1696294800</v>
+        <v>1696284000</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60">
-        <v>1696298400</v>
+        <v>1696287600</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61">
-        <v>1696302000</v>
+        <v>1696291200</v>
       </c>
       <c r="B61" t="s">
         <v>61</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62">
-        <v>1696302000</v>
+        <v>1696291200</v>
       </c>
       <c r="B62" t="s">
         <v>61</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63">
-        <v>1696305600</v>
+        <v>1696294800</v>
       </c>
       <c r="B63" t="s">
         <v>62</v>
@@ -4657,7 +4657,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64">
-        <v>1696309200</v>
+        <v>1696298400</v>
       </c>
       <c r="B64" t="s">
         <v>63</v>
@@ -4689,7 +4689,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65">
-        <v>1696312800</v>
+        <v>1696302000</v>
       </c>
       <c r="B65" t="s">
         <v>64</v>
@@ -4721,7 +4721,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66">
-        <v>1696316400</v>
+        <v>1696305600</v>
       </c>
       <c r="B66" t="s">
         <v>65</v>
@@ -4753,7 +4753,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67">
-        <v>1696320000</v>
+        <v>1696309200</v>
       </c>
       <c r="B67" t="s">
         <v>66</v>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68">
-        <v>1696323600</v>
+        <v>1696312800</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69">
-        <v>1696327200</v>
+        <v>1696316400</v>
       </c>
       <c r="B69" t="s">
         <v>68</v>
@@ -4849,7 +4849,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70">
-        <v>1696330800</v>
+        <v>1696320000</v>
       </c>
       <c r="B70" t="s">
         <v>69</v>
@@ -4881,7 +4881,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71">
-        <v>1696334400</v>
+        <v>1696323600</v>
       </c>
       <c r="B71" t="s">
         <v>70</v>
@@ -4913,7 +4913,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72">
-        <v>1696338000</v>
+        <v>1696327200</v>
       </c>
       <c r="B72" t="s">
         <v>71</v>
@@ -4945,7 +4945,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73">
-        <v>1696341600</v>
+        <v>1696330800</v>
       </c>
       <c r="B73" t="s">
         <v>72</v>
@@ -4977,7 +4977,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74">
-        <v>1696345200</v>
+        <v>1696334400</v>
       </c>
       <c r="B74" t="s">
         <v>73</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75">
-        <v>1696348800</v>
+        <v>1696338000</v>
       </c>
       <c r="B75" t="s">
         <v>74</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76">
-        <v>1696352400</v>
+        <v>1696341600</v>
       </c>
       <c r="B76" t="s">
         <v>75</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77">
-        <v>1696356000</v>
+        <v>1696345200</v>
       </c>
       <c r="B77" t="s">
         <v>76</v>
@@ -5105,7 +5105,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78">
-        <v>1696359600</v>
+        <v>1696348800</v>
       </c>
       <c r="B78" t="s">
         <v>77</v>
@@ -5137,7 +5137,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79">
-        <v>1696363200</v>
+        <v>1696352400</v>
       </c>
       <c r="B79" t="s">
         <v>78</v>
@@ -5169,7 +5169,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80">
-        <v>1696366800</v>
+        <v>1696356000</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
@@ -5201,7 +5201,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81">
-        <v>1696370400</v>
+        <v>1696359600</v>
       </c>
       <c r="B81" t="s">
         <v>80</v>
@@ -5233,7 +5233,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82">
-        <v>1696374000</v>
+        <v>1696363200</v>
       </c>
       <c r="B82" t="s">
         <v>81</v>
@@ -5265,7 +5265,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83">
-        <v>1696377600</v>
+        <v>1696366800</v>
       </c>
       <c r="B83" t="s">
         <v>82</v>
@@ -5297,7 +5297,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84">
-        <v>1696381200</v>
+        <v>1696370400</v>
       </c>
       <c r="B84" t="s">
         <v>83</v>
@@ -5329,7 +5329,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85">
-        <v>1696384800</v>
+        <v>1696374000</v>
       </c>
       <c r="B85" t="s">
         <v>84</v>
@@ -5361,7 +5361,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86">
-        <v>1696388400</v>
+        <v>1696377600</v>
       </c>
       <c r="B86" t="s">
         <v>85</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87">
-        <v>1696392000</v>
+        <v>1696381200</v>
       </c>
       <c r="B87" t="s">
         <v>86</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88">
-        <v>1696395600</v>
+        <v>1696384800</v>
       </c>
       <c r="B88" t="s">
         <v>87</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89">
-        <v>1696399200</v>
+        <v>1696388400</v>
       </c>
       <c r="B89" t="s">
         <v>88</v>
@@ -5489,7 +5489,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90">
-        <v>1696402800</v>
+        <v>1696392000</v>
       </c>
       <c r="B90" t="s">
         <v>89</v>
@@ -5521,7 +5521,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91">
-        <v>1696406400</v>
+        <v>1696395600</v>
       </c>
       <c r="B91" t="s">
         <v>90</v>
@@ -5553,7 +5553,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92">
-        <v>1696410000</v>
+        <v>1696399200</v>
       </c>
       <c r="B92" t="s">
         <v>91</v>
@@ -5585,7 +5585,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93">
-        <v>1696413600</v>
+        <v>1696402800</v>
       </c>
       <c r="B93" t="s">
         <v>92</v>
@@ -5617,7 +5617,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94">
-        <v>1696417200</v>
+        <v>1696406400</v>
       </c>
       <c r="B94" t="s">
         <v>93</v>
@@ -5649,7 +5649,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95">
-        <v>1696420800</v>
+        <v>1696410000</v>
       </c>
       <c r="B95" t="s">
         <v>94</v>
@@ -5681,7 +5681,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96">
-        <v>1696424400</v>
+        <v>1696413600</v>
       </c>
       <c r="B96" t="s">
         <v>95</v>
@@ -5713,7 +5713,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97">
-        <v>1696428000</v>
+        <v>1696417200</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
@@ -5745,7 +5745,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98">
-        <v>1696431600</v>
+        <v>1696420800</v>
       </c>
       <c r="B98" t="s">
         <v>97</v>
@@ -5777,7 +5777,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99">
-        <v>1696435200</v>
+        <v>1696424400</v>
       </c>
       <c r="B99" t="s">
         <v>98</v>
@@ -5809,7 +5809,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100">
-        <v>1696438800</v>
+        <v>1696428000</v>
       </c>
       <c r="B100" t="s">
         <v>99</v>
@@ -5841,7 +5841,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101">
-        <v>1696442400</v>
+        <v>1696431600</v>
       </c>
       <c r="B101" t="s">
         <v>100</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102">
-        <v>1696446000</v>
+        <v>1696435200</v>
       </c>
       <c r="B102" t="s">
         <v>101</v>
@@ -5905,7 +5905,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103">
-        <v>1696449600</v>
+        <v>1696438800</v>
       </c>
       <c r="B103" t="s">
         <v>102</v>
@@ -5937,7 +5937,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104">
-        <v>1696453200</v>
+        <v>1696442400</v>
       </c>
       <c r="B104" t="s">
         <v>103</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105">
-        <v>1696456800</v>
+        <v>1696446000</v>
       </c>
       <c r="B105" t="s">
         <v>104</v>
@@ -6001,7 +6001,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106">
-        <v>1696456800</v>
+        <v>1696446000</v>
       </c>
       <c r="B106" t="s">
         <v>104</v>
@@ -6033,7 +6033,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107">
-        <v>1696460400</v>
+        <v>1696449600</v>
       </c>
       <c r="B107" t="s">
         <v>105</v>
@@ -6065,7 +6065,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108">
-        <v>1696464000</v>
+        <v>1696453200</v>
       </c>
       <c r="B108" t="s">
         <v>106</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109">
-        <v>1696467600</v>
+        <v>1696456800</v>
       </c>
       <c r="B109" t="s">
         <v>107</v>
@@ -6129,7 +6129,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110">
-        <v>1696467600</v>
+        <v>1696456800</v>
       </c>
       <c r="B110" t="s">
         <v>107</v>
@@ -6161,7 +6161,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111">
-        <v>1696471200</v>
+        <v>1696460400</v>
       </c>
       <c r="B111" t="s">
         <v>108</v>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112">
-        <v>1696474800</v>
+        <v>1696464000</v>
       </c>
       <c r="B112" t="s">
         <v>109</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113">
-        <v>1696478400</v>
+        <v>1696467600</v>
       </c>
       <c r="B113" t="s">
         <v>110</v>
@@ -6257,7 +6257,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114">
-        <v>1696482000</v>
+        <v>1696471200</v>
       </c>
       <c r="B114" t="s">
         <v>111</v>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115">
-        <v>1696485600</v>
+        <v>1696474800</v>
       </c>
       <c r="B115" t="s">
         <v>112</v>
@@ -6321,7 +6321,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116">
-        <v>1696489200</v>
+        <v>1696478400</v>
       </c>
       <c r="B116" t="s">
         <v>113</v>
@@ -6353,7 +6353,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117">
-        <v>1696492800</v>
+        <v>1696482000</v>
       </c>
       <c r="B117" t="s">
         <v>114</v>
@@ -6385,7 +6385,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118">
-        <v>1696496400</v>
+        <v>1696485600</v>
       </c>
       <c r="B118" t="s">
         <v>115</v>
@@ -6417,7 +6417,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119">
-        <v>1696500000</v>
+        <v>1696489200</v>
       </c>
       <c r="B119" t="s">
         <v>116</v>
@@ -6449,7 +6449,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120">
-        <v>1696503600</v>
+        <v>1696492800</v>
       </c>
       <c r="B120" t="s">
         <v>117</v>
@@ -6481,7 +6481,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121">
-        <v>1696507200</v>
+        <v>1696496400</v>
       </c>
       <c r="B121" t="s">
         <v>118</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122">
-        <v>1696510800</v>
+        <v>1696500000</v>
       </c>
       <c r="B122" t="s">
         <v>119</v>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123">
-        <v>1696514400</v>
+        <v>1696503600</v>
       </c>
       <c r="B123" t="s">
         <v>120</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124">
-        <v>1696518000</v>
+        <v>1696507200</v>
       </c>
       <c r="B124" t="s">
         <v>121</v>
@@ -6609,7 +6609,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125">
-        <v>1696521600</v>
+        <v>1696510800</v>
       </c>
       <c r="B125" t="s">
         <v>122</v>
@@ -6641,7 +6641,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126">
-        <v>1696525200</v>
+        <v>1696514400</v>
       </c>
       <c r="B126" t="s">
         <v>123</v>
@@ -6673,7 +6673,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127">
-        <v>1696528800</v>
+        <v>1696518000</v>
       </c>
       <c r="B127" t="s">
         <v>124</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128">
-        <v>1696532400</v>
+        <v>1696521600</v>
       </c>
       <c r="B128" t="s">
         <v>125</v>
@@ -6737,7 +6737,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129">
-        <v>1696536000</v>
+        <v>1696525200</v>
       </c>
       <c r="B129" t="s">
         <v>126</v>
@@ -6769,7 +6769,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130">
-        <v>1696539600</v>
+        <v>1696528800</v>
       </c>
       <c r="B130" t="s">
         <v>127</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131">
-        <v>1696539600</v>
+        <v>1696528800</v>
       </c>
       <c r="B131" t="s">
         <v>127</v>
@@ -6833,7 +6833,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132">
-        <v>1696543200</v>
+        <v>1696532400</v>
       </c>
       <c r="B132" t="s">
         <v>128</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133">
-        <v>1696546800</v>
+        <v>1696536000</v>
       </c>
       <c r="B133" t="s">
         <v>129</v>
@@ -6897,7 +6897,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134">
-        <v>1696550400</v>
+        <v>1696539600</v>
       </c>
       <c r="B134" t="s">
         <v>130</v>
@@ -6929,7 +6929,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135">
-        <v>1696554000</v>
+        <v>1696543200</v>
       </c>
       <c r="B135" t="s">
         <v>131</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136">
-        <v>1696554000</v>
+        <v>1696543200</v>
       </c>
       <c r="B136" t="s">
         <v>131</v>
@@ -6993,7 +6993,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137">
-        <v>1696557600</v>
+        <v>1696546800</v>
       </c>
       <c r="B137" t="s">
         <v>132</v>
@@ -7025,7 +7025,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138">
-        <v>1696561200</v>
+        <v>1696550400</v>
       </c>
       <c r="B138" t="s">
         <v>133</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139">
-        <v>1696564800</v>
+        <v>1696554000</v>
       </c>
       <c r="B139" t="s">
         <v>134</v>
@@ -7089,7 +7089,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140">
-        <v>1696568400</v>
+        <v>1696557600</v>
       </c>
       <c r="B140" t="s">
         <v>135</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141">
-        <v>1696572000</v>
+        <v>1696561200</v>
       </c>
       <c r="B141" t="s">
         <v>136</v>
@@ -7153,7 +7153,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142">
-        <v>1696575600</v>
+        <v>1696564800</v>
       </c>
       <c r="B142" t="s">
         <v>137</v>
@@ -7185,7 +7185,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143">
-        <v>1696579200</v>
+        <v>1696568400</v>
       </c>
       <c r="B143" t="s">
         <v>138</v>
@@ -7217,7 +7217,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144">
-        <v>1696582800</v>
+        <v>1696572000</v>
       </c>
       <c r="B144" t="s">
         <v>139</v>
@@ -7249,7 +7249,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145">
-        <v>1696586400</v>
+        <v>1696575600</v>
       </c>
       <c r="B145" t="s">
         <v>140</v>
@@ -7281,7 +7281,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146">
-        <v>1696590000</v>
+        <v>1696579200</v>
       </c>
       <c r="B146" t="s">
         <v>141</v>
@@ -7313,7 +7313,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147">
-        <v>1696593600</v>
+        <v>1696582800</v>
       </c>
       <c r="B147" t="s">
         <v>142</v>
@@ -7345,7 +7345,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148">
-        <v>1696597200</v>
+        <v>1696586400</v>
       </c>
       <c r="B148" t="s">
         <v>143</v>
@@ -7377,7 +7377,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149">
-        <v>1696600800</v>
+        <v>1696590000</v>
       </c>
       <c r="B149" t="s">
         <v>144</v>
@@ -7409,7 +7409,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150">
-        <v>1696600800</v>
+        <v>1696590000</v>
       </c>
       <c r="B150" t="s">
         <v>144</v>
@@ -7441,7 +7441,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151">
-        <v>1696604400</v>
+        <v>1696593600</v>
       </c>
       <c r="B151" t="s">
         <v>145</v>
@@ -7473,7 +7473,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152">
-        <v>1696608000</v>
+        <v>1696597200</v>
       </c>
       <c r="B152" t="s">
         <v>146</v>
@@ -7505,7 +7505,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153">
-        <v>1696611600</v>
+        <v>1696600800</v>
       </c>
       <c r="B153" t="s">
         <v>147</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154">
-        <v>1696615200</v>
+        <v>1696604400</v>
       </c>
       <c r="B154" t="s">
         <v>148</v>
@@ -7569,7 +7569,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155">
-        <v>1696618800</v>
+        <v>1696608000</v>
       </c>
       <c r="B155" t="s">
         <v>149</v>
@@ -7601,7 +7601,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156">
-        <v>1696622400</v>
+        <v>1696611600</v>
       </c>
       <c r="B156" t="s">
         <v>150</v>
@@ -7633,7 +7633,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157">
-        <v>1696626000</v>
+        <v>1696615200</v>
       </c>
       <c r="B157" t="s">
         <v>151</v>
@@ -7665,7 +7665,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158">
-        <v>1696626000</v>
+        <v>1696615200</v>
       </c>
       <c r="B158" t="s">
         <v>151</v>
@@ -7697,7 +7697,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159">
-        <v>1696629600</v>
+        <v>1696618800</v>
       </c>
       <c r="B159" t="s">
         <v>152</v>
@@ -7729,7 +7729,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160">
-        <v>1696629600</v>
+        <v>1696618800</v>
       </c>
       <c r="B160" t="s">
         <v>152</v>
@@ -7761,7 +7761,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161">
-        <v>1696633200</v>
+        <v>1696622400</v>
       </c>
       <c r="B161" t="s">
         <v>153</v>
@@ -7793,7 +7793,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162">
-        <v>1696633200</v>
+        <v>1696622400</v>
       </c>
       <c r="B162" t="s">
         <v>153</v>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163">
-        <v>1696636800</v>
+        <v>1696626000</v>
       </c>
       <c r="B163" t="s">
         <v>154</v>
@@ -7857,7 +7857,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164">
-        <v>1696636800</v>
+        <v>1696626000</v>
       </c>
       <c r="B164" t="s">
         <v>154</v>
@@ -7889,7 +7889,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165">
-        <v>1696640400</v>
+        <v>1696629600</v>
       </c>
       <c r="B165" t="s">
         <v>155</v>
@@ -7921,7 +7921,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166">
-        <v>1696640400</v>
+        <v>1696629600</v>
       </c>
       <c r="B166" t="s">
         <v>155</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167">
-        <v>1696644000</v>
+        <v>1696633200</v>
       </c>
       <c r="B167" t="s">
         <v>156</v>
@@ -7985,7 +7985,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168">
-        <v>1696647600</v>
+        <v>1696636800</v>
       </c>
       <c r="B168" t="s">
         <v>157</v>
@@ -8017,7 +8017,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169">
-        <v>1696651200</v>
+        <v>1696640400</v>
       </c>
       <c r="B169" t="s">
         <v>158</v>
@@ -8049,7 +8049,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170">
-        <v>1696654800</v>
+        <v>1696644000</v>
       </c>
       <c r="B170" t="s">
         <v>159</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171">
-        <v>1696658400</v>
+        <v>1696647600</v>
       </c>
       <c r="B171" t="s">
         <v>160</v>
@@ -8113,7 +8113,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172">
-        <v>1696662000</v>
+        <v>1696651200</v>
       </c>
       <c r="B172" t="s">
         <v>161</v>
@@ -8145,7 +8145,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173">
-        <v>1696665600</v>
+        <v>1696654800</v>
       </c>
       <c r="B173" t="s">
         <v>162</v>
@@ -8177,7 +8177,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174">
-        <v>1696669200</v>
+        <v>1696658400</v>
       </c>
       <c r="B174" t="s">
         <v>163</v>
@@ -8209,7 +8209,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175">
-        <v>1696672800</v>
+        <v>1696662000</v>
       </c>
       <c r="B175" t="s">
         <v>164</v>
@@ -8241,7 +8241,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176">
-        <v>1696676400</v>
+        <v>1696665600</v>
       </c>
       <c r="B176" t="s">
         <v>165</v>
@@ -8273,7 +8273,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177">
-        <v>1696680000</v>
+        <v>1696669200</v>
       </c>
       <c r="B177" t="s">
         <v>166</v>
@@ -8305,7 +8305,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178">
-        <v>1696683600</v>
+        <v>1696672800</v>
       </c>
       <c r="B178" t="s">
         <v>167</v>
@@ -8337,7 +8337,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179">
-        <v>1696687200</v>
+        <v>1696676400</v>
       </c>
       <c r="B179" t="s">
         <v>168</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180">
-        <v>1696690800</v>
+        <v>1696680000</v>
       </c>
       <c r="B180" t="s">
         <v>169</v>
@@ -8401,7 +8401,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181">
-        <v>1696694400</v>
+        <v>1696683600</v>
       </c>
       <c r="B181" t="s">
         <v>170</v>
@@ -8433,7 +8433,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182">
-        <v>1696694400</v>
+        <v>1696683600</v>
       </c>
       <c r="B182" t="s">
         <v>170</v>
@@ -8465,7 +8465,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183">
-        <v>1696698000</v>
+        <v>1696687200</v>
       </c>
       <c r="B183" t="s">
         <v>171</v>
@@ -8497,7 +8497,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184">
-        <v>1696698000</v>
+        <v>1696687200</v>
       </c>
       <c r="B184" t="s">
         <v>171</v>
@@ -8529,7 +8529,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185">
-        <v>1696701600</v>
+        <v>1696690800</v>
       </c>
       <c r="B185" t="s">
         <v>172</v>
@@ -8561,7 +8561,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186">
-        <v>1696705200</v>
+        <v>1696694400</v>
       </c>
       <c r="B186" t="s">
         <v>173</v>
@@ -8593,7 +8593,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187">
-        <v>1696708800</v>
+        <v>1696698000</v>
       </c>
       <c r="B187" t="s">
         <v>174</v>
@@ -8625,7 +8625,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188">
-        <v>1696708800</v>
+        <v>1696698000</v>
       </c>
       <c r="B188" t="s">
         <v>174</v>
@@ -8657,7 +8657,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189">
-        <v>1696712400</v>
+        <v>1696701600</v>
       </c>
       <c r="B189" t="s">
         <v>175</v>
@@ -8689,7 +8689,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190">
-        <v>1696712400</v>
+        <v>1696701600</v>
       </c>
       <c r="B190" t="s">
         <v>175</v>
@@ -8721,7 +8721,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191">
-        <v>1696712400</v>
+        <v>1696701600</v>
       </c>
       <c r="B191" t="s">
         <v>175</v>
@@ -8753,7 +8753,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192">
-        <v>1696716000</v>
+        <v>1696705200</v>
       </c>
       <c r="B192" t="s">
         <v>176</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193">
-        <v>1696716000</v>
+        <v>1696705200</v>
       </c>
       <c r="B193" t="s">
         <v>176</v>
@@ -8817,7 +8817,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194">
-        <v>1696719600</v>
+        <v>1696708800</v>
       </c>
       <c r="B194" t="s">
         <v>177</v>
@@ -8849,7 +8849,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195">
-        <v>1696719600</v>
+        <v>1696708800</v>
       </c>
       <c r="B195" t="s">
         <v>177</v>
@@ -8881,7 +8881,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196">
-        <v>1696719600</v>
+        <v>1696708800</v>
       </c>
       <c r="B196" t="s">
         <v>177</v>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197">
-        <v>1696723200</v>
+        <v>1696712400</v>
       </c>
       <c r="B197" t="s">
         <v>178</v>
@@ -8945,7 +8945,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198">
-        <v>1696723200</v>
+        <v>1696712400</v>
       </c>
       <c r="B198" t="s">
         <v>178</v>
@@ -8977,7 +8977,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199">
-        <v>1696726800</v>
+        <v>1696716000</v>
       </c>
       <c r="B199" t="s">
         <v>179</v>
@@ -9009,7 +9009,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200">
-        <v>1696726800</v>
+        <v>1696716000</v>
       </c>
       <c r="B200" t="s">
         <v>179</v>
@@ -9041,7 +9041,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201">
-        <v>1696730400</v>
+        <v>1696719600</v>
       </c>
       <c r="B201" t="s">
         <v>180</v>
@@ -9073,7 +9073,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202">
-        <v>1696730400</v>
+        <v>1696719600</v>
       </c>
       <c r="B202" t="s">
         <v>180</v>
@@ -9105,7 +9105,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203">
-        <v>1696734000</v>
+        <v>1696723200</v>
       </c>
       <c r="B203" t="s">
         <v>181</v>
@@ -9137,7 +9137,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204">
-        <v>1696734000</v>
+        <v>1696723200</v>
       </c>
       <c r="B204" t="s">
         <v>181</v>
@@ -9169,7 +9169,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205">
-        <v>1696737600</v>
+        <v>1696726800</v>
       </c>
       <c r="B205" t="s">
         <v>182</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206">
-        <v>1696737600</v>
+        <v>1696726800</v>
       </c>
       <c r="B206" t="s">
         <v>182</v>
@@ -9233,7 +9233,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207">
-        <v>1696741200</v>
+        <v>1696730400</v>
       </c>
       <c r="B207" t="s">
         <v>183</v>
@@ -9265,7 +9265,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208">
-        <v>1696741200</v>
+        <v>1696730400</v>
       </c>
       <c r="B208" t="s">
         <v>183</v>
@@ -9297,7 +9297,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209">
-        <v>1696741200</v>
+        <v>1696730400</v>
       </c>
       <c r="B209" t="s">
         <v>183</v>
@@ -9329,7 +9329,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210">
-        <v>1696744800</v>
+        <v>1696734000</v>
       </c>
       <c r="B210" t="s">
         <v>184</v>
@@ -9361,7 +9361,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211">
-        <v>1696744800</v>
+        <v>1696734000</v>
       </c>
       <c r="B211" t="s">
         <v>184</v>
@@ -9393,7 +9393,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212">
-        <v>1696748400</v>
+        <v>1696737600</v>
       </c>
       <c r="B212" t="s">
         <v>185</v>
@@ -9425,7 +9425,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213">
-        <v>1696748400</v>
+        <v>1696737600</v>
       </c>
       <c r="B213" t="s">
         <v>185</v>
@@ -9457,7 +9457,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214">
-        <v>1696752000</v>
+        <v>1696741200</v>
       </c>
       <c r="B214" t="s">
         <v>186</v>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215">
-        <v>1696752000</v>
+        <v>1696741200</v>
       </c>
       <c r="B215" t="s">
         <v>186</v>
@@ -9521,7 +9521,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216">
-        <v>1696755600</v>
+        <v>1696744800</v>
       </c>
       <c r="B216" t="s">
         <v>187</v>
@@ -9553,7 +9553,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217">
-        <v>1696759200</v>
+        <v>1696748400</v>
       </c>
       <c r="B217" t="s">
         <v>188</v>
@@ -9585,7 +9585,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218">
-        <v>1696762800</v>
+        <v>1696752000</v>
       </c>
       <c r="B218" t="s">
         <v>189</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219">
-        <v>1696766400</v>
+        <v>1696755600</v>
       </c>
       <c r="B219" t="s">
         <v>190</v>
@@ -9649,7 +9649,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220">
-        <v>1696770000</v>
+        <v>1696759200</v>
       </c>
       <c r="B220" t="s">
         <v>191</v>
@@ -9681,7 +9681,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221">
-        <v>1696773600</v>
+        <v>1696762800</v>
       </c>
       <c r="B221" t="s">
         <v>192</v>
@@ -9713,7 +9713,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222">
-        <v>1696777200</v>
+        <v>1696766400</v>
       </c>
       <c r="B222" t="s">
         <v>193</v>
@@ -9745,7 +9745,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223">
-        <v>1696780800</v>
+        <v>1696770000</v>
       </c>
       <c r="B223" t="s">
         <v>194</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224">
-        <v>1696784400</v>
+        <v>1696773600</v>
       </c>
       <c r="B224" t="s">
         <v>195</v>
@@ -9809,7 +9809,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225">
-        <v>1696784400</v>
+        <v>1696773600</v>
       </c>
       <c r="B225" t="s">
         <v>195</v>
@@ -9841,7 +9841,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226">
-        <v>1696788000</v>
+        <v>1696777200</v>
       </c>
       <c r="B226" t="s">
         <v>196</v>
@@ -9873,7 +9873,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227">
-        <v>1696791600</v>
+        <v>1696780800</v>
       </c>
       <c r="B227" t="s">
         <v>197</v>
@@ -9905,7 +9905,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228">
-        <v>1696795200</v>
+        <v>1696784400</v>
       </c>
       <c r="B228" t="s">
         <v>198</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229">
-        <v>1696798800</v>
+        <v>1696788000</v>
       </c>
       <c r="B229" t="s">
         <v>199</v>
@@ -9969,7 +9969,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230">
-        <v>1696798800</v>
+        <v>1696788000</v>
       </c>
       <c r="B230" t="s">
         <v>199</v>
@@ -10001,7 +10001,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231">
-        <v>1696802400</v>
+        <v>1696791600</v>
       </c>
       <c r="B231" t="s">
         <v>200</v>
@@ -10033,7 +10033,7 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232">
-        <v>1696802400</v>
+        <v>1696791600</v>
       </c>
       <c r="B232" t="s">
         <v>200</v>
@@ -10065,7 +10065,7 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233">
-        <v>1696806000</v>
+        <v>1696795200</v>
       </c>
       <c r="B233" t="s">
         <v>201</v>
@@ -10097,7 +10097,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234">
-        <v>1696809600</v>
+        <v>1696798800</v>
       </c>
       <c r="B234" t="s">
         <v>202</v>
@@ -10129,7 +10129,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235">
-        <v>1696813200</v>
+        <v>1696802400</v>
       </c>
       <c r="B235" t="s">
         <v>203</v>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236">
-        <v>1696816800</v>
+        <v>1696806000</v>
       </c>
       <c r="B236" t="s">
         <v>204</v>
@@ -10193,7 +10193,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237">
-        <v>1696816800</v>
+        <v>1696806000</v>
       </c>
       <c r="B237" t="s">
         <v>204</v>
@@ -10225,7 +10225,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238">
-        <v>1696820400</v>
+        <v>1696809600</v>
       </c>
       <c r="B238" t="s">
         <v>205</v>
@@ -10257,7 +10257,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239">
-        <v>1696820400</v>
+        <v>1696809600</v>
       </c>
       <c r="B239" t="s">
         <v>205</v>
@@ -10289,7 +10289,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240">
-        <v>1696824000</v>
+        <v>1696813200</v>
       </c>
       <c r="B240" t="s">
         <v>206</v>
@@ -10321,7 +10321,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241">
-        <v>1696827600</v>
+        <v>1696816800</v>
       </c>
       <c r="B241" t="s">
         <v>207</v>
@@ -10353,7 +10353,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242">
-        <v>1696831200</v>
+        <v>1696820400</v>
       </c>
       <c r="B242" t="s">
         <v>208</v>
@@ -10385,7 +10385,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243">
-        <v>1696834800</v>
+        <v>1696824000</v>
       </c>
       <c r="B243" t="s">
         <v>209</v>
@@ -10417,7 +10417,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244">
-        <v>1696838400</v>
+        <v>1696827600</v>
       </c>
       <c r="B244" t="s">
         <v>210</v>
@@ -10449,7 +10449,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245">
-        <v>1696838400</v>
+        <v>1696827600</v>
       </c>
       <c r="B245" t="s">
         <v>210</v>
@@ -10481,7 +10481,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246">
-        <v>1696842000</v>
+        <v>1696831200</v>
       </c>
       <c r="B246" t="s">
         <v>211</v>
@@ -10513,7 +10513,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247">
-        <v>1696845600</v>
+        <v>1696834800</v>
       </c>
       <c r="B247" t="s">
         <v>212</v>
@@ -10545,7 +10545,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248">
-        <v>1696849200</v>
+        <v>1696838400</v>
       </c>
       <c r="B248" t="s">
         <v>213</v>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249">
-        <v>1696852800</v>
+        <v>1696842000</v>
       </c>
       <c r="B249" t="s">
         <v>214</v>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250">
-        <v>1696856400</v>
+        <v>1696845600</v>
       </c>
       <c r="B250" t="s">
         <v>215</v>
@@ -10641,7 +10641,7 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251">
-        <v>1696860000</v>
+        <v>1696849200</v>
       </c>
       <c r="B251" t="s">
         <v>216</v>
@@ -10673,7 +10673,7 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252">
-        <v>1696863600</v>
+        <v>1696852800</v>
       </c>
       <c r="B252" t="s">
         <v>217</v>
@@ -10705,7 +10705,7 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253">
-        <v>1696867200</v>
+        <v>1696856400</v>
       </c>
       <c r="B253" t="s">
         <v>218</v>
@@ -10737,7 +10737,7 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254">
-        <v>1696870800</v>
+        <v>1696860000</v>
       </c>
       <c r="B254" t="s">
         <v>219</v>
@@ -10769,7 +10769,7 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255">
-        <v>1696874400</v>
+        <v>1696863600</v>
       </c>
       <c r="B255" t="s">
         <v>220</v>
@@ -10801,7 +10801,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256">
-        <v>1696878000</v>
+        <v>1696867200</v>
       </c>
       <c r="B256" t="s">
         <v>221</v>
@@ -10833,7 +10833,7 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257">
-        <v>1696881600</v>
+        <v>1696870800</v>
       </c>
       <c r="B257" t="s">
         <v>222</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258">
-        <v>1696885200</v>
+        <v>1696874400</v>
       </c>
       <c r="B258" t="s">
         <v>223</v>
@@ -10897,7 +10897,7 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259">
-        <v>1696885200</v>
+        <v>1696874400</v>
       </c>
       <c r="B259" t="s">
         <v>223</v>
@@ -10929,7 +10929,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260">
-        <v>1696888800</v>
+        <v>1696878000</v>
       </c>
       <c r="B260" t="s">
         <v>224</v>
@@ -10961,7 +10961,7 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261">
-        <v>1696892400</v>
+        <v>1696881600</v>
       </c>
       <c r="B261" t="s">
         <v>225</v>
@@ -10993,7 +10993,7 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262">
-        <v>1696896000</v>
+        <v>1696885200</v>
       </c>
       <c r="B262" t="s">
         <v>226</v>
@@ -11025,7 +11025,7 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263">
-        <v>1696899600</v>
+        <v>1696888800</v>
       </c>
       <c r="B263" t="s">
         <v>227</v>
@@ -11057,7 +11057,7 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264">
-        <v>1696903200</v>
+        <v>1696892400</v>
       </c>
       <c r="B264" t="s">
         <v>228</v>
@@ -11089,7 +11089,7 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265">
-        <v>1696906800</v>
+        <v>1696896000</v>
       </c>
       <c r="B265" t="s">
         <v>229</v>
@@ -11121,7 +11121,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266">
-        <v>1696910400</v>
+        <v>1696899600</v>
       </c>
       <c r="B266" t="s">
         <v>230</v>
@@ -11153,7 +11153,7 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267">
-        <v>1696914000</v>
+        <v>1696903200</v>
       </c>
       <c r="B267" t="s">
         <v>231</v>
@@ -11185,7 +11185,7 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268">
-        <v>1696917600</v>
+        <v>1696906800</v>
       </c>
       <c r="B268" t="s">
         <v>232</v>
@@ -11217,7 +11217,7 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269">
-        <v>1696921200</v>
+        <v>1696910400</v>
       </c>
       <c r="B269" t="s">
         <v>233</v>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270">
-        <v>1696924800</v>
+        <v>1696914000</v>
       </c>
       <c r="B270" t="s">
         <v>234</v>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271">
-        <v>1696928400</v>
+        <v>1696917600</v>
       </c>
       <c r="B271" t="s">
         <v>235</v>
@@ -11313,7 +11313,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272">
-        <v>1696932000</v>
+        <v>1696921200</v>
       </c>
       <c r="B272" t="s">
         <v>236</v>
@@ -11345,7 +11345,7 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273">
-        <v>1696935600</v>
+        <v>1696924800</v>
       </c>
       <c r="B273" t="s">
         <v>237</v>
@@ -11377,7 +11377,7 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274">
-        <v>1696939200</v>
+        <v>1696928400</v>
       </c>
       <c r="B274" t="s">
         <v>238</v>
@@ -11409,7 +11409,7 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275">
-        <v>1696942800</v>
+        <v>1696932000</v>
       </c>
       <c r="B275" t="s">
         <v>239</v>
@@ -11441,7 +11441,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276">
-        <v>1696946400</v>
+        <v>1696935600</v>
       </c>
       <c r="B276" t="s">
         <v>240</v>
@@ -11473,7 +11473,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277">
-        <v>1696950000</v>
+        <v>1696939200</v>
       </c>
       <c r="B277" t="s">
         <v>241</v>
@@ -11505,7 +11505,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278">
-        <v>1696953600</v>
+        <v>1696942800</v>
       </c>
       <c r="B278" t="s">
         <v>242</v>
@@ -11537,7 +11537,7 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279">
-        <v>1696957200</v>
+        <v>1696946400</v>
       </c>
       <c r="B279" t="s">
         <v>243</v>
@@ -11569,7 +11569,7 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280">
-        <v>1696960800</v>
+        <v>1696950000</v>
       </c>
       <c r="B280" t="s">
         <v>244</v>
@@ -11601,7 +11601,7 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281">
-        <v>1696964400</v>
+        <v>1696953600</v>
       </c>
       <c r="B281" t="s">
         <v>245</v>
@@ -11633,7 +11633,7 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282">
-        <v>1696968000</v>
+        <v>1696957200</v>
       </c>
       <c r="B282" t="s">
         <v>246</v>
@@ -11665,7 +11665,7 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283">
-        <v>1696971600</v>
+        <v>1696960800</v>
       </c>
       <c r="B283" t="s">
         <v>247</v>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284">
-        <v>1696971600</v>
+        <v>1696960800</v>
       </c>
       <c r="B284" t="s">
         <v>247</v>
@@ -11729,7 +11729,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285">
-        <v>1696975200</v>
+        <v>1696964400</v>
       </c>
       <c r="B285" t="s">
         <v>248</v>
@@ -11761,7 +11761,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286">
-        <v>1696978800</v>
+        <v>1696968000</v>
       </c>
       <c r="B286" t="s">
         <v>249</v>
@@ -11793,7 +11793,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287">
-        <v>1696982400</v>
+        <v>1696971600</v>
       </c>
       <c r="B287" t="s">
         <v>250</v>
@@ -11825,7 +11825,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288">
-        <v>1696986000</v>
+        <v>1696975200</v>
       </c>
       <c r="B288" t="s">
         <v>251</v>
@@ -11857,7 +11857,7 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289">
-        <v>1696989600</v>
+        <v>1696978800</v>
       </c>
       <c r="B289" t="s">
         <v>252</v>
@@ -11889,7 +11889,7 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290">
-        <v>1696993200</v>
+        <v>1696982400</v>
       </c>
       <c r="B290" t="s">
         <v>253</v>
@@ -11921,7 +11921,7 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291">
-        <v>1696996800</v>
+        <v>1696986000</v>
       </c>
       <c r="B291" t="s">
         <v>254</v>
@@ -11953,7 +11953,7 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292">
-        <v>1697000400</v>
+        <v>1696989600</v>
       </c>
       <c r="B292" t="s">
         <v>255</v>
@@ -11985,7 +11985,7 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293">
-        <v>1697004000</v>
+        <v>1696993200</v>
       </c>
       <c r="B293" t="s">
         <v>256</v>
@@ -12017,7 +12017,7 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294">
-        <v>1697007600</v>
+        <v>1696996800</v>
       </c>
       <c r="B294" t="s">
         <v>257</v>
@@ -12049,7 +12049,7 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295">
-        <v>1697011200</v>
+        <v>1697000400</v>
       </c>
       <c r="B295" t="s">
         <v>258</v>
@@ -12081,7 +12081,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296">
-        <v>1697014800</v>
+        <v>1697004000</v>
       </c>
       <c r="B296" t="s">
         <v>259</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297">
-        <v>1697018400</v>
+        <v>1697007600</v>
       </c>
       <c r="B297" t="s">
         <v>260</v>
@@ -12145,7 +12145,7 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298">
-        <v>1697022000</v>
+        <v>1697011200</v>
       </c>
       <c r="B298" t="s">
         <v>261</v>
@@ -12177,7 +12177,7 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299">
-        <v>1697025600</v>
+        <v>1697014800</v>
       </c>
       <c r="B299" t="s">
         <v>262</v>
@@ -12209,7 +12209,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300">
-        <v>1697029200</v>
+        <v>1697018400</v>
       </c>
       <c r="B300" t="s">
         <v>263</v>
@@ -12241,7 +12241,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301">
-        <v>1697032800</v>
+        <v>1697022000</v>
       </c>
       <c r="B301" t="s">
         <v>264</v>
@@ -12273,7 +12273,7 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302">
-        <v>1697036400</v>
+        <v>1697025600</v>
       </c>
       <c r="B302" t="s">
         <v>265</v>
@@ -12305,7 +12305,7 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303">
-        <v>1697036400</v>
+        <v>1697025600</v>
       </c>
       <c r="B303" t="s">
         <v>265</v>
@@ -12337,7 +12337,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304">
-        <v>1697040000</v>
+        <v>1697029200</v>
       </c>
       <c r="B304" t="s">
         <v>266</v>
@@ -12369,7 +12369,7 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305">
-        <v>1697040000</v>
+        <v>1697029200</v>
       </c>
       <c r="B305" t="s">
         <v>266</v>
@@ -12401,7 +12401,7 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306">
-        <v>1697043600</v>
+        <v>1697032800</v>
       </c>
       <c r="B306" t="s">
         <v>267</v>
@@ -12433,7 +12433,7 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307">
-        <v>1697047200</v>
+        <v>1697036400</v>
       </c>
       <c r="B307" t="s">
         <v>268</v>
@@ -12465,7 +12465,7 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308">
-        <v>1697050800</v>
+        <v>1697040000</v>
       </c>
       <c r="B308" t="s">
         <v>269</v>
@@ -12497,7 +12497,7 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309">
-        <v>1697054400</v>
+        <v>1697043600</v>
       </c>
       <c r="B309" t="s">
         <v>270</v>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310">
-        <v>1697058000</v>
+        <v>1697047200</v>
       </c>
       <c r="B310" t="s">
         <v>271</v>
@@ -12561,7 +12561,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311">
-        <v>1697058000</v>
+        <v>1697047200</v>
       </c>
       <c r="B311" t="s">
         <v>271</v>
@@ -12593,7 +12593,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312">
-        <v>1697061600</v>
+        <v>1697050800</v>
       </c>
       <c r="B312" t="s">
         <v>272</v>
@@ -12625,7 +12625,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313">
-        <v>1697065200</v>
+        <v>1697054400</v>
       </c>
       <c r="B313" t="s">
         <v>273</v>
@@ -12657,7 +12657,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314">
-        <v>1697068800</v>
+        <v>1697058000</v>
       </c>
       <c r="B314" t="s">
         <v>274</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315">
-        <v>1697072400</v>
+        <v>1697061600</v>
       </c>
       <c r="B315" t="s">
         <v>275</v>
@@ -12721,7 +12721,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316">
-        <v>1697076000</v>
+        <v>1697065200</v>
       </c>
       <c r="B316" t="s">
         <v>276</v>
@@ -12753,7 +12753,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317">
-        <v>1697079600</v>
+        <v>1697068800</v>
       </c>
       <c r="B317" t="s">
         <v>277</v>
@@ -12785,7 +12785,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318">
-        <v>1697083200</v>
+        <v>1697072400</v>
       </c>
       <c r="B318" t="s">
         <v>278</v>
@@ -12817,7 +12817,7 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319">
-        <v>1697086800</v>
+        <v>1697076000</v>
       </c>
       <c r="B319" t="s">
         <v>279</v>
@@ -12849,7 +12849,7 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320">
-        <v>1697090400</v>
+        <v>1697079600</v>
       </c>
       <c r="B320" t="s">
         <v>280</v>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321">
-        <v>1697094000</v>
+        <v>1697083200</v>
       </c>
       <c r="B321" t="s">
         <v>281</v>
@@ -12913,7 +12913,7 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322">
-        <v>1697097600</v>
+        <v>1697086800</v>
       </c>
       <c r="B322" t="s">
         <v>282</v>
@@ -12945,7 +12945,7 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323">
-        <v>1697101200</v>
+        <v>1697090400</v>
       </c>
       <c r="B323" t="s">
         <v>283</v>
@@ -12977,7 +12977,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324">
-        <v>1697104800</v>
+        <v>1697094000</v>
       </c>
       <c r="B324" t="s">
         <v>284</v>
@@ -13009,7 +13009,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325">
-        <v>1697108400</v>
+        <v>1697097600</v>
       </c>
       <c r="B325" t="s">
         <v>285</v>
@@ -13041,7 +13041,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326">
-        <v>1697112000</v>
+        <v>1697101200</v>
       </c>
       <c r="B326" t="s">
         <v>286</v>
@@ -13073,7 +13073,7 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327">
-        <v>1697115600</v>
+        <v>1697104800</v>
       </c>
       <c r="B327" t="s">
         <v>287</v>
@@ -13105,7 +13105,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328">
-        <v>1697119200</v>
+        <v>1697108400</v>
       </c>
       <c r="B328" t="s">
         <v>288</v>
@@ -13137,7 +13137,7 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329">
-        <v>1697122800</v>
+        <v>1697112000</v>
       </c>
       <c r="B329" t="s">
         <v>289</v>
@@ -13169,7 +13169,7 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330">
-        <v>1697126400</v>
+        <v>1697115600</v>
       </c>
       <c r="B330" t="s">
         <v>290</v>
@@ -13201,7 +13201,7 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331">
-        <v>1697130000</v>
+        <v>1697119200</v>
       </c>
       <c r="B331" t="s">
         <v>291</v>
@@ -13233,7 +13233,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332">
-        <v>1697133600</v>
+        <v>1697122800</v>
       </c>
       <c r="B332" t="s">
         <v>292</v>
@@ -13265,7 +13265,7 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333">
-        <v>1697137200</v>
+        <v>1697126400</v>
       </c>
       <c r="B333" t="s">
         <v>293</v>
@@ -13297,7 +13297,7 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334">
-        <v>1697140800</v>
+        <v>1697130000</v>
       </c>
       <c r="B334" t="s">
         <v>294</v>
@@ -13329,7 +13329,7 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335">
-        <v>1697144400</v>
+        <v>1697133600</v>
       </c>
       <c r="B335" t="s">
         <v>295</v>
@@ -13361,7 +13361,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336">
-        <v>1697148000</v>
+        <v>1697137200</v>
       </c>
       <c r="B336" t="s">
         <v>296</v>
@@ -13393,7 +13393,7 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337">
-        <v>1697151600</v>
+        <v>1697140800</v>
       </c>
       <c r="B337" t="s">
         <v>297</v>
@@ -13425,7 +13425,7 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338">
-        <v>1697155200</v>
+        <v>1697144400</v>
       </c>
       <c r="B338" t="s">
         <v>298</v>
@@ -13457,7 +13457,7 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339">
-        <v>1697158800</v>
+        <v>1697148000</v>
       </c>
       <c r="B339" t="s">
         <v>299</v>
@@ -13489,7 +13489,7 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340">
-        <v>1697158800</v>
+        <v>1697148000</v>
       </c>
       <c r="B340" t="s">
         <v>299</v>
@@ -13521,7 +13521,7 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341">
-        <v>1697162400</v>
+        <v>1697151600</v>
       </c>
       <c r="B341" t="s">
         <v>300</v>
@@ -13553,7 +13553,7 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342">
-        <v>1697166000</v>
+        <v>1697155200</v>
       </c>
       <c r="B342" t="s">
         <v>301</v>
@@ -13585,7 +13585,7 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343">
-        <v>1697169600</v>
+        <v>1697158800</v>
       </c>
       <c r="B343" t="s">
         <v>302</v>
@@ -13617,7 +13617,7 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344">
-        <v>1697173200</v>
+        <v>1697162400</v>
       </c>
       <c r="B344" t="s">
         <v>303</v>
@@ -13649,7 +13649,7 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345">
-        <v>1697176800</v>
+        <v>1697166000</v>
       </c>
       <c r="B345" t="s">
         <v>304</v>
@@ -13681,7 +13681,7 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346">
-        <v>1697180400</v>
+        <v>1697169600</v>
       </c>
       <c r="B346" t="s">
         <v>305</v>
@@ -13713,7 +13713,7 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347">
-        <v>1697184000</v>
+        <v>1697173200</v>
       </c>
       <c r="B347" t="s">
         <v>306</v>
@@ -13745,7 +13745,7 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348">
-        <v>1697187600</v>
+        <v>1697176800</v>
       </c>
       <c r="B348" t="s">
         <v>307</v>
@@ -13777,7 +13777,7 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349">
-        <v>1697191200</v>
+        <v>1697180400</v>
       </c>
       <c r="B349" t="s">
         <v>308</v>
@@ -13809,7 +13809,7 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350">
-        <v>1697194800</v>
+        <v>1697184000</v>
       </c>
       <c r="B350" t="s">
         <v>309</v>
@@ -13841,7 +13841,7 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351">
-        <v>1697198400</v>
+        <v>1697187600</v>
       </c>
       <c r="B351" t="s">
         <v>310</v>
@@ -13873,7 +13873,7 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352">
-        <v>1697202000</v>
+        <v>1697191200</v>
       </c>
       <c r="B352" t="s">
         <v>311</v>
@@ -13905,7 +13905,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353">
-        <v>1697205600</v>
+        <v>1697194800</v>
       </c>
       <c r="B353" t="s">
         <v>312</v>
@@ -13937,7 +13937,7 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354">
-        <v>1697209200</v>
+        <v>1697198400</v>
       </c>
       <c r="B354" t="s">
         <v>313</v>
@@ -13969,7 +13969,7 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355">
-        <v>1697212800</v>
+        <v>1697202000</v>
       </c>
       <c r="B355" t="s">
         <v>314</v>
@@ -14001,7 +14001,7 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356">
-        <v>1697216400</v>
+        <v>1697205600</v>
       </c>
       <c r="B356" t="s">
         <v>315</v>
@@ -14033,7 +14033,7 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357">
-        <v>1697220000</v>
+        <v>1697209200</v>
       </c>
       <c r="B357" t="s">
         <v>316</v>
@@ -14065,7 +14065,7 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358">
-        <v>1697223600</v>
+        <v>1697212800</v>
       </c>
       <c r="B358" t="s">
         <v>317</v>
@@ -14097,7 +14097,7 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359">
-        <v>1697227200</v>
+        <v>1697216400</v>
       </c>
       <c r="B359" t="s">
         <v>318</v>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360">
-        <v>1697230800</v>
+        <v>1697220000</v>
       </c>
       <c r="B360" t="s">
         <v>319</v>
@@ -14161,7 +14161,7 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361">
-        <v>1697234400</v>
+        <v>1697223600</v>
       </c>
       <c r="B361" t="s">
         <v>320</v>
@@ -14193,7 +14193,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362">
-        <v>1697238000</v>
+        <v>1697227200</v>
       </c>
       <c r="B362" t="s">
         <v>321</v>
@@ -14225,7 +14225,7 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363">
-        <v>1697241600</v>
+        <v>1697230800</v>
       </c>
       <c r="B363" t="s">
         <v>322</v>
@@ -14257,7 +14257,7 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364">
-        <v>1697245200</v>
+        <v>1697234400</v>
       </c>
       <c r="B364" t="s">
         <v>323</v>
@@ -14289,7 +14289,7 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365">
-        <v>1697248800</v>
+        <v>1697238000</v>
       </c>
       <c r="B365" t="s">
         <v>324</v>
@@ -14321,7 +14321,7 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366">
-        <v>1697252400</v>
+        <v>1697241600</v>
       </c>
       <c r="B366" t="s">
         <v>325</v>
@@ -14353,7 +14353,7 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367">
-        <v>1697256000</v>
+        <v>1697245200</v>
       </c>
       <c r="B367" t="s">
         <v>326</v>
@@ -14385,7 +14385,7 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368">
-        <v>1697259600</v>
+        <v>1697248800</v>
       </c>
       <c r="B368" t="s">
         <v>327</v>
@@ -14417,7 +14417,7 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369">
-        <v>1697263200</v>
+        <v>1697252400</v>
       </c>
       <c r="B369" t="s">
         <v>328</v>
@@ -14449,7 +14449,7 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370">
-        <v>1697266800</v>
+        <v>1697256000</v>
       </c>
       <c r="B370" t="s">
         <v>329</v>
@@ -14481,7 +14481,7 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371">
-        <v>1697270400</v>
+        <v>1697259600</v>
       </c>
       <c r="B371" t="s">
         <v>330</v>
@@ -14513,7 +14513,7 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372">
-        <v>1697274000</v>
+        <v>1697263200</v>
       </c>
       <c r="B372" t="s">
         <v>331</v>
@@ -14545,7 +14545,7 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373">
-        <v>1697277600</v>
+        <v>1697266800</v>
       </c>
       <c r="B373" t="s">
         <v>332</v>
@@ -14577,7 +14577,7 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374">
-        <v>1697281200</v>
+        <v>1697270400</v>
       </c>
       <c r="B374" t="s">
         <v>333</v>
@@ -14609,7 +14609,7 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375">
-        <v>1697284800</v>
+        <v>1697274000</v>
       </c>
       <c r="B375" t="s">
         <v>334</v>
@@ -14641,7 +14641,7 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376">
-        <v>1697288400</v>
+        <v>1697277600</v>
       </c>
       <c r="B376" t="s">
         <v>335</v>
@@ -14673,7 +14673,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377">
-        <v>1697292000</v>
+        <v>1697281200</v>
       </c>
       <c r="B377" t="s">
         <v>336</v>
@@ -14705,7 +14705,7 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378">
-        <v>1697295600</v>
+        <v>1697284800</v>
       </c>
       <c r="B378" t="s">
         <v>337</v>
@@ -14737,7 +14737,7 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379">
-        <v>1697299200</v>
+        <v>1697288400</v>
       </c>
       <c r="B379" t="s">
         <v>338</v>
@@ -14769,7 +14769,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380">
-        <v>1697302800</v>
+        <v>1697292000</v>
       </c>
       <c r="B380" t="s">
         <v>339</v>
@@ -14801,7 +14801,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381">
-        <v>1697306400</v>
+        <v>1697295600</v>
       </c>
       <c r="B381" t="s">
         <v>340</v>
@@ -14833,7 +14833,7 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382">
-        <v>1697310000</v>
+        <v>1697299200</v>
       </c>
       <c r="B382" t="s">
         <v>341</v>
@@ -14865,7 +14865,7 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383">
-        <v>1697313600</v>
+        <v>1697302800</v>
       </c>
       <c r="B383" t="s">
         <v>342</v>
@@ -14897,7 +14897,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384">
-        <v>1697317200</v>
+        <v>1697306400</v>
       </c>
       <c r="B384" t="s">
         <v>343</v>
@@ -14929,7 +14929,7 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385">
-        <v>1697320800</v>
+        <v>1697310000</v>
       </c>
       <c r="B385" t="s">
         <v>344</v>
@@ -14961,7 +14961,7 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386">
-        <v>1697324400</v>
+        <v>1697313600</v>
       </c>
       <c r="B386" t="s">
         <v>345</v>
@@ -14993,7 +14993,7 @@
     </row>
     <row r="387" spans="1:10">
       <c r="A387">
-        <v>1697328000</v>
+        <v>1697317200</v>
       </c>
       <c r="B387" t="s">
         <v>346</v>
@@ -15025,7 +15025,7 @@
     </row>
     <row r="388" spans="1:10">
       <c r="A388">
-        <v>1697331600</v>
+        <v>1697320800</v>
       </c>
       <c r="B388" t="s">
         <v>347</v>
@@ -15057,7 +15057,7 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389">
-        <v>1697335200</v>
+        <v>1697324400</v>
       </c>
       <c r="B389" t="s">
         <v>348</v>
@@ -15089,7 +15089,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390">
-        <v>1697338800</v>
+        <v>1697328000</v>
       </c>
       <c r="B390" t="s">
         <v>349</v>
@@ -15121,7 +15121,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391">
-        <v>1697342400</v>
+        <v>1697331600</v>
       </c>
       <c r="B391" t="s">
         <v>350</v>
@@ -15153,7 +15153,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392">
-        <v>1697346000</v>
+        <v>1697335200</v>
       </c>
       <c r="B392" t="s">
         <v>351</v>
@@ -15185,7 +15185,7 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393">
-        <v>1697349600</v>
+        <v>1697338800</v>
       </c>
       <c r="B393" t="s">
         <v>352</v>
@@ -15217,7 +15217,7 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394">
-        <v>1697353200</v>
+        <v>1697342400</v>
       </c>
       <c r="B394" t="s">
         <v>353</v>
@@ -15249,7 +15249,7 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395">
-        <v>1697356800</v>
+        <v>1697346000</v>
       </c>
       <c r="B395" t="s">
         <v>354</v>
@@ -15281,7 +15281,7 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396">
-        <v>1697360400</v>
+        <v>1697349600</v>
       </c>
       <c r="B396" t="s">
         <v>355</v>
@@ -15313,7 +15313,7 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397">
-        <v>1697364000</v>
+        <v>1697353200</v>
       </c>
       <c r="B397" t="s">
         <v>356</v>
@@ -15345,7 +15345,7 @@
     </row>
     <row r="398" spans="1:10">
       <c r="A398">
-        <v>1697367600</v>
+        <v>1697356800</v>
       </c>
       <c r="B398" t="s">
         <v>357</v>
@@ -15377,7 +15377,7 @@
     </row>
     <row r="399" spans="1:10">
       <c r="A399">
-        <v>1697367600</v>
+        <v>1697356800</v>
       </c>
       <c r="B399" t="s">
         <v>357</v>
@@ -15409,7 +15409,7 @@
     </row>
     <row r="400" spans="1:10">
       <c r="A400">
-        <v>1697371200</v>
+        <v>1697360400</v>
       </c>
       <c r="B400" t="s">
         <v>358</v>
@@ -15441,7 +15441,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401">
-        <v>1697374800</v>
+        <v>1697364000</v>
       </c>
       <c r="B401" t="s">
         <v>359</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402">
-        <v>1697378400</v>
+        <v>1697367600</v>
       </c>
       <c r="B402" t="s">
         <v>360</v>
@@ -15505,7 +15505,7 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403">
-        <v>1697382000</v>
+        <v>1697371200</v>
       </c>
       <c r="B403" t="s">
         <v>361</v>
@@ -15537,7 +15537,7 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404">
-        <v>1697385600</v>
+        <v>1697374800</v>
       </c>
       <c r="B404" t="s">
         <v>362</v>
@@ -15569,7 +15569,7 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405">
-        <v>1697389200</v>
+        <v>1697378400</v>
       </c>
       <c r="B405" t="s">
         <v>363</v>
@@ -15601,7 +15601,7 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406">
-        <v>1697392800</v>
+        <v>1697382000</v>
       </c>
       <c r="B406" t="s">
         <v>364</v>
@@ -15633,7 +15633,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407">
-        <v>1697396400</v>
+        <v>1697385600</v>
       </c>
       <c r="B407" t="s">
         <v>365</v>
@@ -15665,7 +15665,7 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408">
-        <v>1697400000</v>
+        <v>1697389200</v>
       </c>
       <c r="B408" t="s">
         <v>366</v>
@@ -15697,7 +15697,7 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409">
-        <v>1697403600</v>
+        <v>1697392800</v>
       </c>
       <c r="B409" t="s">
         <v>367</v>
@@ -15729,7 +15729,7 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410">
-        <v>1697407200</v>
+        <v>1697396400</v>
       </c>
       <c r="B410" t="s">
         <v>368</v>
@@ -15761,7 +15761,7 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411">
-        <v>1697410800</v>
+        <v>1697400000</v>
       </c>
       <c r="B411" t="s">
         <v>369</v>
@@ -15793,7 +15793,7 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412">
-        <v>1697414400</v>
+        <v>1697403600</v>
       </c>
       <c r="B412" t="s">
         <v>370</v>
@@ -15825,7 +15825,7 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413">
-        <v>1697418000</v>
+        <v>1697407200</v>
       </c>
       <c r="B413" t="s">
         <v>371</v>
@@ -15857,7 +15857,7 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414">
-        <v>1697421600</v>
+        <v>1697410800</v>
       </c>
       <c r="B414" t="s">
         <v>372</v>
@@ -15889,7 +15889,7 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415">
-        <v>1697425200</v>
+        <v>1697414400</v>
       </c>
       <c r="B415" t="s">
         <v>373</v>
@@ -15921,7 +15921,7 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416">
-        <v>1697428800</v>
+        <v>1697418000</v>
       </c>
       <c r="B416" t="s">
         <v>374</v>
@@ -15953,7 +15953,7 @@
     </row>
     <row r="417" spans="1:10">
       <c r="A417">
-        <v>1697432400</v>
+        <v>1697421600</v>
       </c>
       <c r="B417" t="s">
         <v>375</v>
@@ -15985,7 +15985,7 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418">
-        <v>1697436000</v>
+        <v>1697425200</v>
       </c>
       <c r="B418" t="s">
         <v>376</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="419" spans="1:10">
       <c r="A419">
-        <v>1697439600</v>
+        <v>1697428800</v>
       </c>
       <c r="B419" t="s">
         <v>377</v>
@@ -16049,7 +16049,7 @@
     </row>
     <row r="420" spans="1:10">
       <c r="A420">
-        <v>1697443200</v>
+        <v>1697432400</v>
       </c>
       <c r="B420" t="s">
         <v>378</v>
@@ -16081,7 +16081,7 @@
     </row>
     <row r="421" spans="1:10">
       <c r="A421">
-        <v>1697446800</v>
+        <v>1697436000</v>
       </c>
       <c r="B421" t="s">
         <v>379</v>
@@ -16113,7 +16113,7 @@
     </row>
     <row r="422" spans="1:10">
       <c r="A422">
-        <v>1697450400</v>
+        <v>1697439600</v>
       </c>
       <c r="B422" t="s">
         <v>380</v>
@@ -16145,7 +16145,7 @@
     </row>
     <row r="423" spans="1:10">
       <c r="A423">
-        <v>1697454000</v>
+        <v>1697443200</v>
       </c>
       <c r="B423" t="s">
         <v>381</v>
@@ -16177,7 +16177,7 @@
     </row>
     <row r="424" spans="1:10">
       <c r="A424">
-        <v>1697457600</v>
+        <v>1697446800</v>
       </c>
       <c r="B424" t="s">
         <v>382</v>
@@ -16209,7 +16209,7 @@
     </row>
     <row r="425" spans="1:10">
       <c r="A425">
-        <v>1697461200</v>
+        <v>1697450400</v>
       </c>
       <c r="B425" t="s">
         <v>383</v>
@@ -16241,7 +16241,7 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426">
-        <v>1697464800</v>
+        <v>1697454000</v>
       </c>
       <c r="B426" t="s">
         <v>384</v>
@@ -16273,7 +16273,7 @@
     </row>
     <row r="427" spans="1:10">
       <c r="A427">
-        <v>1697468400</v>
+        <v>1697457600</v>
       </c>
       <c r="B427" t="s">
         <v>385</v>
@@ -16305,7 +16305,7 @@
     </row>
     <row r="428" spans="1:10">
       <c r="A428">
-        <v>1697472000</v>
+        <v>1697461200</v>
       </c>
       <c r="B428" t="s">
         <v>386</v>
@@ -16337,7 +16337,7 @@
     </row>
     <row r="429" spans="1:10">
       <c r="A429">
-        <v>1697475600</v>
+        <v>1697464800</v>
       </c>
       <c r="B429" t="s">
         <v>387</v>
@@ -16369,7 +16369,7 @@
     </row>
     <row r="430" spans="1:10">
       <c r="A430">
-        <v>1697479200</v>
+        <v>1697468400</v>
       </c>
       <c r="B430" t="s">
         <v>388</v>
@@ -16401,7 +16401,7 @@
     </row>
     <row r="431" spans="1:10">
       <c r="A431">
-        <v>1697482800</v>
+        <v>1697472000</v>
       </c>
       <c r="B431" t="s">
         <v>389</v>
@@ -16433,7 +16433,7 @@
     </row>
     <row r="432" spans="1:10">
       <c r="A432">
-        <v>1697486400</v>
+        <v>1697475600</v>
       </c>
       <c r="B432" t="s">
         <v>390</v>
@@ -16465,7 +16465,7 @@
     </row>
     <row r="433" spans="1:10">
       <c r="A433">
-        <v>1697490000</v>
+        <v>1697479200</v>
       </c>
       <c r="B433" t="s">
         <v>391</v>
@@ -16497,7 +16497,7 @@
     </row>
     <row r="434" spans="1:10">
       <c r="A434">
-        <v>1697493600</v>
+        <v>1697482800</v>
       </c>
       <c r="B434" t="s">
         <v>392</v>
@@ -16529,7 +16529,7 @@
     </row>
     <row r="435" spans="1:10">
       <c r="A435">
-        <v>1697497200</v>
+        <v>1697486400</v>
       </c>
       <c r="B435" t="s">
         <v>393</v>
@@ -16561,7 +16561,7 @@
     </row>
     <row r="436" spans="1:10">
       <c r="A436">
-        <v>1697500800</v>
+        <v>1697490000</v>
       </c>
       <c r="B436" t="s">
         <v>394</v>
@@ -16593,7 +16593,7 @@
     </row>
     <row r="437" spans="1:10">
       <c r="A437">
-        <v>1697504400</v>
+        <v>1697493600</v>
       </c>
       <c r="B437" t="s">
         <v>395</v>
@@ -16625,7 +16625,7 @@
     </row>
     <row r="438" spans="1:10">
       <c r="A438">
-        <v>1697508000</v>
+        <v>1697497200</v>
       </c>
       <c r="B438" t="s">
         <v>396</v>
@@ -16657,7 +16657,7 @@
     </row>
     <row r="439" spans="1:10">
       <c r="A439">
-        <v>1697511600</v>
+        <v>1697500800</v>
       </c>
       <c r="B439" t="s">
         <v>397</v>
@@ -16689,7 +16689,7 @@
     </row>
     <row r="440" spans="1:10">
       <c r="A440">
-        <v>1697515200</v>
+        <v>1697504400</v>
       </c>
       <c r="B440" t="s">
         <v>398</v>
@@ -16721,7 +16721,7 @@
     </row>
     <row r="441" spans="1:10">
       <c r="A441">
-        <v>1697518800</v>
+        <v>1697508000</v>
       </c>
       <c r="B441" t="s">
         <v>399</v>
@@ -16753,7 +16753,7 @@
     </row>
     <row r="442" spans="1:10">
       <c r="A442">
-        <v>1697522400</v>
+        <v>1697511600</v>
       </c>
       <c r="B442" t="s">
         <v>400</v>
@@ -16785,7 +16785,7 @@
     </row>
     <row r="443" spans="1:10">
       <c r="A443">
-        <v>1697526000</v>
+        <v>1697515200</v>
       </c>
       <c r="B443" t="s">
         <v>401</v>
@@ -16817,7 +16817,7 @@
     </row>
     <row r="444" spans="1:10">
       <c r="A444">
-        <v>1697529600</v>
+        <v>1697518800</v>
       </c>
       <c r="B444" t="s">
         <v>402</v>
@@ -16849,7 +16849,7 @@
     </row>
     <row r="445" spans="1:10">
       <c r="A445">
-        <v>1697533200</v>
+        <v>1697522400</v>
       </c>
       <c r="B445" t="s">
         <v>403</v>
@@ -16881,7 +16881,7 @@
     </row>
     <row r="446" spans="1:10">
       <c r="A446">
-        <v>1697536800</v>
+        <v>1697526000</v>
       </c>
       <c r="B446" t="s">
         <v>404</v>
@@ -16913,7 +16913,7 @@
     </row>
     <row r="447" spans="1:10">
       <c r="A447">
-        <v>1697540400</v>
+        <v>1697529600</v>
       </c>
       <c r="B447" t="s">
         <v>405</v>
@@ -16945,7 +16945,7 @@
     </row>
     <row r="448" spans="1:10">
       <c r="A448">
-        <v>1697544000</v>
+        <v>1697533200</v>
       </c>
       <c r="B448" t="s">
         <v>406</v>
@@ -16977,7 +16977,7 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449">
-        <v>1697547600</v>
+        <v>1697536800</v>
       </c>
       <c r="B449" t="s">
         <v>407</v>
@@ -17009,7 +17009,7 @@
     </row>
     <row r="450" spans="1:10">
       <c r="A450">
-        <v>1697547600</v>
+        <v>1697536800</v>
       </c>
       <c r="B450" t="s">
         <v>407</v>
@@ -17041,7 +17041,7 @@
     </row>
     <row r="451" spans="1:10">
       <c r="A451">
-        <v>1697551200</v>
+        <v>1697540400</v>
       </c>
       <c r="B451" t="s">
         <v>408</v>
@@ -17073,7 +17073,7 @@
     </row>
     <row r="452" spans="1:10">
       <c r="A452">
-        <v>1697554800</v>
+        <v>1697544000</v>
       </c>
       <c r="B452" t="s">
         <v>409</v>
@@ -17105,7 +17105,7 @@
     </row>
     <row r="453" spans="1:10">
       <c r="A453">
-        <v>1697558400</v>
+        <v>1697547600</v>
       </c>
       <c r="B453" t="s">
         <v>410</v>
@@ -17137,7 +17137,7 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454">
-        <v>1697562000</v>
+        <v>1697551200</v>
       </c>
       <c r="B454" t="s">
         <v>411</v>
@@ -17169,7 +17169,7 @@
     </row>
     <row r="455" spans="1:10">
       <c r="A455">
-        <v>1697565600</v>
+        <v>1697554800</v>
       </c>
       <c r="B455" t="s">
         <v>412</v>
@@ -17201,7 +17201,7 @@
     </row>
     <row r="456" spans="1:10">
       <c r="A456">
-        <v>1697569200</v>
+        <v>1697558400</v>
       </c>
       <c r="B456" t="s">
         <v>413</v>
@@ -17233,7 +17233,7 @@
     </row>
     <row r="457" spans="1:10">
       <c r="A457">
-        <v>1697572800</v>
+        <v>1697562000</v>
       </c>
       <c r="B457" t="s">
         <v>414</v>
@@ -17265,7 +17265,7 @@
     </row>
     <row r="458" spans="1:10">
       <c r="A458">
-        <v>1697576400</v>
+        <v>1697565600</v>
       </c>
       <c r="B458" t="s">
         <v>415</v>
@@ -17297,7 +17297,7 @@
     </row>
     <row r="459" spans="1:10">
       <c r="A459">
-        <v>1697580000</v>
+        <v>1697569200</v>
       </c>
       <c r="B459" t="s">
         <v>416</v>
@@ -17329,7 +17329,7 @@
     </row>
     <row r="460" spans="1:10">
       <c r="A460">
-        <v>1697583600</v>
+        <v>1697572800</v>
       </c>
       <c r="B460" t="s">
         <v>417</v>
@@ -17361,7 +17361,7 @@
     </row>
     <row r="461" spans="1:10">
       <c r="A461">
-        <v>1697587200</v>
+        <v>1697576400</v>
       </c>
       <c r="B461" t="s">
         <v>418</v>
@@ -17393,7 +17393,7 @@
     </row>
     <row r="462" spans="1:10">
       <c r="A462">
-        <v>1697590800</v>
+        <v>1697580000</v>
       </c>
       <c r="B462" t="s">
         <v>419</v>
@@ -17425,7 +17425,7 @@
     </row>
     <row r="463" spans="1:10">
       <c r="A463">
-        <v>1697594400</v>
+        <v>1697583600</v>
       </c>
       <c r="B463" t="s">
         <v>420</v>
@@ -17457,7 +17457,7 @@
     </row>
     <row r="464" spans="1:10">
       <c r="A464">
-        <v>1697598000</v>
+        <v>1697587200</v>
       </c>
       <c r="B464" t="s">
         <v>421</v>
@@ -17489,7 +17489,7 @@
     </row>
     <row r="465" spans="1:10">
       <c r="A465">
-        <v>1697601600</v>
+        <v>1697590800</v>
       </c>
       <c r="B465" t="s">
         <v>422</v>
@@ -17521,7 +17521,7 @@
     </row>
     <row r="466" spans="1:10">
       <c r="A466">
-        <v>1697605200</v>
+        <v>1697594400</v>
       </c>
       <c r="B466" t="s">
         <v>423</v>
@@ -17553,7 +17553,7 @@
     </row>
     <row r="467" spans="1:10">
       <c r="A467">
-        <v>1697608800</v>
+        <v>1697598000</v>
       </c>
       <c r="B467" t="s">
         <v>424</v>
@@ -17585,7 +17585,7 @@
     </row>
     <row r="468" spans="1:10">
       <c r="A468">
-        <v>1697612400</v>
+        <v>1697601600</v>
       </c>
       <c r="B468" t="s">
         <v>425</v>
@@ -17617,7 +17617,7 @@
     </row>
     <row r="469" spans="1:10">
       <c r="A469">
-        <v>1697616000</v>
+        <v>1697605200</v>
       </c>
       <c r="B469" t="s">
         <v>426</v>
@@ -17649,7 +17649,7 @@
     </row>
     <row r="470" spans="1:10">
       <c r="A470">
-        <v>1697619600</v>
+        <v>1697608800</v>
       </c>
       <c r="B470" t="s">
         <v>427</v>
@@ -17681,7 +17681,7 @@
     </row>
     <row r="471" spans="1:10">
       <c r="A471">
-        <v>1697623200</v>
+        <v>1697612400</v>
       </c>
       <c r="B471" t="s">
         <v>428</v>
@@ -17713,7 +17713,7 @@
     </row>
     <row r="472" spans="1:10">
       <c r="A472">
-        <v>1697626800</v>
+        <v>1697616000</v>
       </c>
       <c r="B472" t="s">
         <v>429</v>
@@ -17745,7 +17745,7 @@
     </row>
     <row r="473" spans="1:10">
       <c r="A473">
-        <v>1697630400</v>
+        <v>1697619600</v>
       </c>
       <c r="B473" t="s">
         <v>430</v>
@@ -17777,7 +17777,7 @@
     </row>
     <row r="474" spans="1:10">
       <c r="A474">
-        <v>1697634000</v>
+        <v>1697623200</v>
       </c>
       <c r="B474" t="s">
         <v>431</v>
@@ -17809,7 +17809,7 @@
     </row>
     <row r="475" spans="1:10">
       <c r="A475">
-        <v>1697637600</v>
+        <v>1697626800</v>
       </c>
       <c r="B475" t="s">
         <v>432</v>
@@ -17841,7 +17841,7 @@
     </row>
     <row r="476" spans="1:10">
       <c r="A476">
-        <v>1697641200</v>
+        <v>1697630400</v>
       </c>
       <c r="B476" t="s">
         <v>433</v>
@@ -17873,7 +17873,7 @@
     </row>
     <row r="477" spans="1:10">
       <c r="A477">
-        <v>1697644800</v>
+        <v>1697634000</v>
       </c>
       <c r="B477" t="s">
         <v>434</v>
@@ -17905,7 +17905,7 @@
     </row>
     <row r="478" spans="1:10">
       <c r="A478">
-        <v>1697648400</v>
+        <v>1697637600</v>
       </c>
       <c r="B478" t="s">
         <v>435</v>
@@ -17937,7 +17937,7 @@
     </row>
     <row r="479" spans="1:10">
       <c r="A479">
-        <v>1697652000</v>
+        <v>1697641200</v>
       </c>
       <c r="B479" t="s">
         <v>436</v>
@@ -17969,7 +17969,7 @@
     </row>
     <row r="480" spans="1:10">
       <c r="A480">
-        <v>1697655600</v>
+        <v>1697644800</v>
       </c>
       <c r="B480" t="s">
         <v>437</v>
@@ -18001,7 +18001,7 @@
     </row>
     <row r="481" spans="1:10">
       <c r="A481">
-        <v>1697659200</v>
+        <v>1697648400</v>
       </c>
       <c r="B481" t="s">
         <v>438</v>
@@ -18033,7 +18033,7 @@
     </row>
     <row r="482" spans="1:10">
       <c r="A482">
-        <v>1697662800</v>
+        <v>1697652000</v>
       </c>
       <c r="B482" t="s">
         <v>439</v>
@@ -18065,7 +18065,7 @@
     </row>
     <row r="483" spans="1:10">
       <c r="A483">
-        <v>1697666400</v>
+        <v>1697655600</v>
       </c>
       <c r="B483" t="s">
         <v>440</v>
@@ -18097,7 +18097,7 @@
     </row>
     <row r="484" spans="1:10">
       <c r="A484">
-        <v>1697670000</v>
+        <v>1697659200</v>
       </c>
       <c r="B484" t="s">
         <v>441</v>
@@ -18129,7 +18129,7 @@
     </row>
     <row r="485" spans="1:10">
       <c r="A485">
-        <v>1697673600</v>
+        <v>1697662800</v>
       </c>
       <c r="B485" t="s">
         <v>442</v>
@@ -18161,7 +18161,7 @@
     </row>
     <row r="486" spans="1:10">
       <c r="A486">
-        <v>1697677200</v>
+        <v>1697666400</v>
       </c>
       <c r="B486" t="s">
         <v>443</v>
@@ -18193,7 +18193,7 @@
     </row>
     <row r="487" spans="1:10">
       <c r="A487">
-        <v>1697680800</v>
+        <v>1697670000</v>
       </c>
       <c r="B487" t="s">
         <v>444</v>
@@ -18225,7 +18225,7 @@
     </row>
     <row r="488" spans="1:10">
       <c r="A488">
-        <v>1697684400</v>
+        <v>1697673600</v>
       </c>
       <c r="B488" t="s">
         <v>445</v>
@@ -18257,7 +18257,7 @@
     </row>
     <row r="489" spans="1:10">
       <c r="A489">
-        <v>1697688000</v>
+        <v>1697677200</v>
       </c>
       <c r="B489" t="s">
         <v>446</v>
@@ -18289,7 +18289,7 @@
     </row>
     <row r="490" spans="1:10">
       <c r="A490">
-        <v>1697691600</v>
+        <v>1697680800</v>
       </c>
       <c r="B490" t="s">
         <v>447</v>
@@ -18321,7 +18321,7 @@
     </row>
     <row r="491" spans="1:10">
       <c r="A491">
-        <v>1697695200</v>
+        <v>1697684400</v>
       </c>
       <c r="B491" t="s">
         <v>448</v>
@@ -18353,7 +18353,7 @@
     </row>
     <row r="492" spans="1:10">
       <c r="A492">
-        <v>1697698800</v>
+        <v>1697688000</v>
       </c>
       <c r="B492" t="s">
         <v>449</v>
@@ -18385,7 +18385,7 @@
     </row>
     <row r="493" spans="1:10">
       <c r="A493">
-        <v>1697702400</v>
+        <v>1697691600</v>
       </c>
       <c r="B493" t="s">
         <v>450</v>
@@ -18417,7 +18417,7 @@
     </row>
     <row r="494" spans="1:10">
       <c r="A494">
-        <v>1697706000</v>
+        <v>1697695200</v>
       </c>
       <c r="B494" t="s">
         <v>451</v>
@@ -18449,7 +18449,7 @@
     </row>
     <row r="495" spans="1:10">
       <c r="A495">
-        <v>1697709600</v>
+        <v>1697698800</v>
       </c>
       <c r="B495" t="s">
         <v>452</v>
@@ -18481,7 +18481,7 @@
     </row>
     <row r="496" spans="1:10">
       <c r="A496">
-        <v>1697713200</v>
+        <v>1697702400</v>
       </c>
       <c r="B496" t="s">
         <v>453</v>
@@ -18513,7 +18513,7 @@
     </row>
     <row r="497" spans="1:10">
       <c r="A497">
-        <v>1697716800</v>
+        <v>1697706000</v>
       </c>
       <c r="B497" t="s">
         <v>454</v>
@@ -18545,7 +18545,7 @@
     </row>
     <row r="498" spans="1:10">
       <c r="A498">
-        <v>1697720400</v>
+        <v>1697709600</v>
       </c>
       <c r="B498" t="s">
         <v>455</v>
@@ -18577,7 +18577,7 @@
     </row>
     <row r="499" spans="1:10">
       <c r="A499">
-        <v>1697724000</v>
+        <v>1697713200</v>
       </c>
       <c r="B499" t="s">
         <v>456</v>
@@ -18609,7 +18609,7 @@
     </row>
     <row r="500" spans="1:10">
       <c r="A500">
-        <v>1697727600</v>
+        <v>1697716800</v>
       </c>
       <c r="B500" t="s">
         <v>457</v>
@@ -18641,7 +18641,7 @@
     </row>
     <row r="501" spans="1:10">
       <c r="A501">
-        <v>1697731200</v>
+        <v>1697720400</v>
       </c>
       <c r="B501" t="s">
         <v>458</v>
@@ -18673,7 +18673,7 @@
     </row>
     <row r="502" spans="1:10">
       <c r="A502">
-        <v>1697734800</v>
+        <v>1697724000</v>
       </c>
       <c r="B502" t="s">
         <v>459</v>
@@ -18705,7 +18705,7 @@
     </row>
     <row r="503" spans="1:10">
       <c r="A503">
-        <v>1697738400</v>
+        <v>1697727600</v>
       </c>
       <c r="B503" t="s">
         <v>460</v>
@@ -18737,7 +18737,7 @@
     </row>
     <row r="504" spans="1:10">
       <c r="A504">
-        <v>1697742000</v>
+        <v>1697731200</v>
       </c>
       <c r="B504" t="s">
         <v>461</v>
@@ -18769,7 +18769,7 @@
     </row>
     <row r="505" spans="1:10">
       <c r="A505">
-        <v>1697745600</v>
+        <v>1697734800</v>
       </c>
       <c r="B505" t="s">
         <v>462</v>
@@ -18801,7 +18801,7 @@
     </row>
     <row r="506" spans="1:10">
       <c r="A506">
-        <v>1697749200</v>
+        <v>1697738400</v>
       </c>
       <c r="B506" t="s">
         <v>463</v>
@@ -18833,7 +18833,7 @@
     </row>
     <row r="507" spans="1:10">
       <c r="A507">
-        <v>1697752800</v>
+        <v>1697742000</v>
       </c>
       <c r="B507" t="s">
         <v>464</v>
@@ -18865,7 +18865,7 @@
     </row>
     <row r="508" spans="1:10">
       <c r="A508">
-        <v>1697756400</v>
+        <v>1697745600</v>
       </c>
       <c r="B508" t="s">
         <v>465</v>
@@ -18897,7 +18897,7 @@
     </row>
     <row r="509" spans="1:10">
       <c r="A509">
-        <v>1697760000</v>
+        <v>1697749200</v>
       </c>
       <c r="B509" t="s">
         <v>466</v>
@@ -18929,7 +18929,7 @@
     </row>
     <row r="510" spans="1:10">
       <c r="A510">
-        <v>1697763600</v>
+        <v>1697752800</v>
       </c>
       <c r="B510" t="s">
         <v>467</v>
@@ -18961,7 +18961,7 @@
     </row>
     <row r="511" spans="1:10">
       <c r="A511">
-        <v>1697767200</v>
+        <v>1697756400</v>
       </c>
       <c r="B511" t="s">
         <v>468</v>
@@ -18993,7 +18993,7 @@
     </row>
     <row r="512" spans="1:10">
       <c r="A512">
-        <v>1697770800</v>
+        <v>1697760000</v>
       </c>
       <c r="B512" t="s">
         <v>469</v>
@@ -19025,7 +19025,7 @@
     </row>
     <row r="513" spans="1:10">
       <c r="A513">
-        <v>1697774400</v>
+        <v>1697763600</v>
       </c>
       <c r="B513" t="s">
         <v>470</v>
@@ -19057,7 +19057,7 @@
     </row>
     <row r="514" spans="1:10">
       <c r="A514">
-        <v>1697778000</v>
+        <v>1697767200</v>
       </c>
       <c r="B514" t="s">
         <v>471</v>
@@ -19089,7 +19089,7 @@
     </row>
     <row r="515" spans="1:10">
       <c r="A515">
-        <v>1697781600</v>
+        <v>1697770800</v>
       </c>
       <c r="B515" t="s">
         <v>472</v>
@@ -19121,7 +19121,7 @@
     </row>
     <row r="516" spans="1:10">
       <c r="A516">
-        <v>1697785200</v>
+        <v>1697774400</v>
       </c>
       <c r="B516" t="s">
         <v>473</v>
@@ -19153,7 +19153,7 @@
     </row>
     <row r="517" spans="1:10">
       <c r="A517">
-        <v>1697788800</v>
+        <v>1697778000</v>
       </c>
       <c r="B517" t="s">
         <v>474</v>
@@ -19185,7 +19185,7 @@
     </row>
     <row r="518" spans="1:10">
       <c r="A518">
-        <v>1697792400</v>
+        <v>1697781600</v>
       </c>
       <c r="B518" t="s">
         <v>475</v>
@@ -19217,7 +19217,7 @@
     </row>
     <row r="519" spans="1:10">
       <c r="A519">
-        <v>1697796000</v>
+        <v>1697785200</v>
       </c>
       <c r="B519" t="s">
         <v>476</v>
@@ -19249,7 +19249,7 @@
     </row>
     <row r="520" spans="1:10">
       <c r="A520">
-        <v>1697799600</v>
+        <v>1697788800</v>
       </c>
       <c r="B520" t="s">
         <v>477</v>
@@ -19281,7 +19281,7 @@
     </row>
     <row r="521" spans="1:10">
       <c r="A521">
-        <v>1697803200</v>
+        <v>1697792400</v>
       </c>
       <c r="B521" t="s">
         <v>478</v>
@@ -19313,7 +19313,7 @@
     </row>
     <row r="522" spans="1:10">
       <c r="A522">
-        <v>1697806800</v>
+        <v>1697796000</v>
       </c>
       <c r="B522" t="s">
         <v>479</v>
@@ -19345,7 +19345,7 @@
     </row>
     <row r="523" spans="1:10">
       <c r="A523">
-        <v>1697810400</v>
+        <v>1697799600</v>
       </c>
       <c r="B523" t="s">
         <v>480</v>
@@ -19377,7 +19377,7 @@
     </row>
     <row r="524" spans="1:10">
       <c r="A524">
-        <v>1697814000</v>
+        <v>1697803200</v>
       </c>
       <c r="B524" t="s">
         <v>481</v>
@@ -19409,7 +19409,7 @@
     </row>
     <row r="525" spans="1:10">
       <c r="A525">
-        <v>1697817600</v>
+        <v>1697806800</v>
       </c>
       <c r="B525" t="s">
         <v>482</v>
@@ -19441,7 +19441,7 @@
     </row>
     <row r="526" spans="1:10">
       <c r="A526">
-        <v>1697821200</v>
+        <v>1697810400</v>
       </c>
       <c r="B526" t="s">
         <v>483</v>
@@ -19473,7 +19473,7 @@
     </row>
     <row r="527" spans="1:10">
       <c r="A527">
-        <v>1697824800</v>
+        <v>1697814000</v>
       </c>
       <c r="B527" t="s">
         <v>484</v>
@@ -19505,7 +19505,7 @@
     </row>
     <row r="528" spans="1:10">
       <c r="A528">
-        <v>1697828400</v>
+        <v>1697817600</v>
       </c>
       <c r="B528" t="s">
         <v>485</v>
@@ -19537,7 +19537,7 @@
     </row>
     <row r="529" spans="1:10">
       <c r="A529">
-        <v>1697832000</v>
+        <v>1697821200</v>
       </c>
       <c r="B529" t="s">
         <v>486</v>
@@ -19569,7 +19569,7 @@
     </row>
     <row r="530" spans="1:10">
       <c r="A530">
-        <v>1697835600</v>
+        <v>1697824800</v>
       </c>
       <c r="B530" t="s">
         <v>487</v>
@@ -19601,7 +19601,7 @@
     </row>
     <row r="531" spans="1:10">
       <c r="A531">
-        <v>1697839200</v>
+        <v>1697828400</v>
       </c>
       <c r="B531" t="s">
         <v>488</v>
@@ -19633,7 +19633,7 @@
     </row>
     <row r="532" spans="1:10">
       <c r="A532">
-        <v>1697842800</v>
+        <v>1697832000</v>
       </c>
       <c r="B532" t="s">
         <v>489</v>
@@ -19665,7 +19665,7 @@
     </row>
     <row r="533" spans="1:10">
       <c r="A533">
-        <v>1697846400</v>
+        <v>1697835600</v>
       </c>
       <c r="B533" t="s">
         <v>490</v>
@@ -19697,7 +19697,7 @@
     </row>
     <row r="534" spans="1:10">
       <c r="A534">
-        <v>1697850000</v>
+        <v>1697839200</v>
       </c>
       <c r="B534" t="s">
         <v>491</v>
@@ -19729,7 +19729,7 @@
     </row>
     <row r="535" spans="1:10">
       <c r="A535">
-        <v>1697853600</v>
+        <v>1697842800</v>
       </c>
       <c r="B535" t="s">
         <v>492</v>
@@ -19761,7 +19761,7 @@
     </row>
     <row r="536" spans="1:10">
       <c r="A536">
-        <v>1697857200</v>
+        <v>1697846400</v>
       </c>
       <c r="B536" t="s">
         <v>493</v>
@@ -19793,7 +19793,7 @@
     </row>
     <row r="537" spans="1:10">
       <c r="A537">
-        <v>1697860800</v>
+        <v>1697850000</v>
       </c>
       <c r="B537" t="s">
         <v>494</v>
@@ -19825,7 +19825,7 @@
     </row>
     <row r="538" spans="1:10">
       <c r="A538">
-        <v>1697864400</v>
+        <v>1697853600</v>
       </c>
       <c r="B538" t="s">
         <v>495</v>
@@ -19857,7 +19857,7 @@
     </row>
     <row r="539" spans="1:10">
       <c r="A539">
-        <v>1697868000</v>
+        <v>1697857200</v>
       </c>
       <c r="B539" t="s">
         <v>496</v>
@@ -19889,7 +19889,7 @@
     </row>
     <row r="540" spans="1:10">
       <c r="A540">
-        <v>1697871600</v>
+        <v>1697860800</v>
       </c>
       <c r="B540" t="s">
         <v>497</v>
@@ -19921,7 +19921,7 @@
     </row>
     <row r="541" spans="1:10">
       <c r="A541">
-        <v>1697875200</v>
+        <v>1697864400</v>
       </c>
       <c r="B541" t="s">
         <v>498</v>
@@ -19953,7 +19953,7 @@
     </row>
     <row r="542" spans="1:10">
       <c r="A542">
-        <v>1697878800</v>
+        <v>1697868000</v>
       </c>
       <c r="B542" t="s">
         <v>499</v>
@@ -19985,7 +19985,7 @@
     </row>
     <row r="543" spans="1:10">
       <c r="A543">
-        <v>1697882400</v>
+        <v>1697871600</v>
       </c>
       <c r="B543" t="s">
         <v>500</v>
@@ -20017,7 +20017,7 @@
     </row>
     <row r="544" spans="1:10">
       <c r="A544">
-        <v>1697886000</v>
+        <v>1697875200</v>
       </c>
       <c r="B544" t="s">
         <v>501</v>
@@ -20049,7 +20049,7 @@
     </row>
     <row r="545" spans="1:10">
       <c r="A545">
-        <v>1697889600</v>
+        <v>1697878800</v>
       </c>
       <c r="B545" t="s">
         <v>502</v>
@@ -20081,7 +20081,7 @@
     </row>
     <row r="546" spans="1:10">
       <c r="A546">
-        <v>1697893200</v>
+        <v>1697882400</v>
       </c>
       <c r="B546" t="s">
         <v>503</v>
@@ -20113,7 +20113,7 @@
     </row>
     <row r="547" spans="1:10">
       <c r="A547">
-        <v>1697896800</v>
+        <v>1697886000</v>
       </c>
       <c r="B547" t="s">
         <v>504</v>
@@ -20145,7 +20145,7 @@
     </row>
     <row r="548" spans="1:10">
       <c r="A548">
-        <v>1697900400</v>
+        <v>1697889600</v>
       </c>
       <c r="B548" t="s">
         <v>505</v>
@@ -20177,7 +20177,7 @@
     </row>
     <row r="549" spans="1:10">
       <c r="A549">
-        <v>1697904000</v>
+        <v>1697893200</v>
       </c>
       <c r="B549" t="s">
         <v>506</v>
@@ -20209,7 +20209,7 @@
     </row>
     <row r="550" spans="1:10">
       <c r="A550">
-        <v>1697907600</v>
+        <v>1697896800</v>
       </c>
       <c r="B550" t="s">
         <v>507</v>
@@ -20241,7 +20241,7 @@
     </row>
     <row r="551" spans="1:10">
       <c r="A551">
-        <v>1697911200</v>
+        <v>1697900400</v>
       </c>
       <c r="B551" t="s">
         <v>508</v>
@@ -20273,7 +20273,7 @@
     </row>
     <row r="552" spans="1:10">
       <c r="A552">
-        <v>1697914800</v>
+        <v>1697904000</v>
       </c>
       <c r="B552" t="s">
         <v>509</v>
@@ -20305,7 +20305,7 @@
     </row>
     <row r="553" spans="1:10">
       <c r="A553">
-        <v>1697918400</v>
+        <v>1697907600</v>
       </c>
       <c r="B553" t="s">
         <v>510</v>
@@ -20337,7 +20337,7 @@
     </row>
     <row r="554" spans="1:10">
       <c r="A554">
-        <v>1697922000</v>
+        <v>1697911200</v>
       </c>
       <c r="B554" t="s">
         <v>511</v>
@@ -20369,7 +20369,7 @@
     </row>
     <row r="555" spans="1:10">
       <c r="A555">
-        <v>1697925600</v>
+        <v>1697914800</v>
       </c>
       <c r="B555" t="s">
         <v>512</v>
@@ -20401,7 +20401,7 @@
     </row>
     <row r="556" spans="1:10">
       <c r="A556">
-        <v>1697929200</v>
+        <v>1697918400</v>
       </c>
       <c r="B556" t="s">
         <v>513</v>
@@ -20433,7 +20433,7 @@
     </row>
     <row r="557" spans="1:10">
       <c r="A557">
-        <v>1697932800</v>
+        <v>1697922000</v>
       </c>
       <c r="B557" t="s">
         <v>514</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="558" spans="1:10">
       <c r="A558">
-        <v>1697936400</v>
+        <v>1697925600</v>
       </c>
       <c r="B558" t="s">
         <v>515</v>
@@ -20497,7 +20497,7 @@
     </row>
     <row r="559" spans="1:10">
       <c r="A559">
-        <v>1697940000</v>
+        <v>1697929200</v>
       </c>
       <c r="B559" t="s">
         <v>516</v>
@@ -20529,7 +20529,7 @@
     </row>
     <row r="560" spans="1:10">
       <c r="A560">
-        <v>1697943600</v>
+        <v>1697932800</v>
       </c>
       <c r="B560" t="s">
         <v>517</v>
@@ -20561,7 +20561,7 @@
     </row>
     <row r="561" spans="1:10">
       <c r="A561">
-        <v>1697947200</v>
+        <v>1697936400</v>
       </c>
       <c r="B561" t="s">
         <v>518</v>
@@ -20593,7 +20593,7 @@
     </row>
     <row r="562" spans="1:10">
       <c r="A562">
-        <v>1697950800</v>
+        <v>1697940000</v>
       </c>
       <c r="B562" t="s">
         <v>519</v>
@@ -20625,7 +20625,7 @@
     </row>
     <row r="563" spans="1:10">
       <c r="A563">
-        <v>1697954400</v>
+        <v>1697943600</v>
       </c>
       <c r="B563" t="s">
         <v>520</v>
@@ -20657,7 +20657,7 @@
     </row>
     <row r="564" spans="1:10">
       <c r="A564">
-        <v>1697958000</v>
+        <v>1697947200</v>
       </c>
       <c r="B564" t="s">
         <v>521</v>
@@ -20689,7 +20689,7 @@
     </row>
     <row r="565" spans="1:10">
       <c r="A565">
-        <v>1697961600</v>
+        <v>1697950800</v>
       </c>
       <c r="B565" t="s">
         <v>522</v>
@@ -20721,7 +20721,7 @@
     </row>
     <row r="566" spans="1:10">
       <c r="A566">
-        <v>1697965200</v>
+        <v>1697954400</v>
       </c>
       <c r="B566" t="s">
         <v>523</v>
@@ -20753,7 +20753,7 @@
     </row>
     <row r="567" spans="1:10">
       <c r="A567">
-        <v>1697968800</v>
+        <v>1697958000</v>
       </c>
       <c r="B567" t="s">
         <v>524</v>
@@ -20785,7 +20785,7 @@
     </row>
     <row r="568" spans="1:10">
       <c r="A568">
-        <v>1697972400</v>
+        <v>1697961600</v>
       </c>
       <c r="B568" t="s">
         <v>525</v>
@@ -20817,7 +20817,7 @@
     </row>
     <row r="569" spans="1:10">
       <c r="A569">
-        <v>1697976000</v>
+        <v>1697965200</v>
       </c>
       <c r="B569" t="s">
         <v>526</v>
@@ -20849,7 +20849,7 @@
     </row>
     <row r="570" spans="1:10">
       <c r="A570">
-        <v>1697979600</v>
+        <v>1697968800</v>
       </c>
       <c r="B570" t="s">
         <v>527</v>
@@ -20881,7 +20881,7 @@
     </row>
     <row r="571" spans="1:10">
       <c r="A571">
-        <v>1697983200</v>
+        <v>1697972400</v>
       </c>
       <c r="B571" t="s">
         <v>528</v>
@@ -20913,7 +20913,7 @@
     </row>
     <row r="572" spans="1:10">
       <c r="A572">
-        <v>1697986800</v>
+        <v>1697976000</v>
       </c>
       <c r="B572" t="s">
         <v>529</v>
@@ -20945,7 +20945,7 @@
     </row>
     <row r="573" spans="1:10">
       <c r="A573">
-        <v>1697990400</v>
+        <v>1697979600</v>
       </c>
       <c r="B573" t="s">
         <v>530</v>
@@ -20977,7 +20977,7 @@
     </row>
     <row r="574" spans="1:10">
       <c r="A574">
-        <v>1697994000</v>
+        <v>1697983200</v>
       </c>
       <c r="B574" t="s">
         <v>531</v>
@@ -21009,7 +21009,7 @@
     </row>
     <row r="575" spans="1:10">
       <c r="A575">
-        <v>1697997600</v>
+        <v>1697986800</v>
       </c>
       <c r="B575" t="s">
         <v>532</v>
@@ -21041,7 +21041,7 @@
     </row>
     <row r="576" spans="1:10">
       <c r="A576">
-        <v>1698001200</v>
+        <v>1697990400</v>
       </c>
       <c r="B576" t="s">
         <v>533</v>
@@ -21073,7 +21073,7 @@
     </row>
     <row r="577" spans="1:10">
       <c r="A577">
-        <v>1698004800</v>
+        <v>1697994000</v>
       </c>
       <c r="B577" t="s">
         <v>534</v>
@@ -21105,7 +21105,7 @@
     </row>
     <row r="578" spans="1:10">
       <c r="A578">
-        <v>1698008400</v>
+        <v>1697997600</v>
       </c>
       <c r="B578" t="s">
         <v>535</v>
@@ -21137,7 +21137,7 @@
     </row>
     <row r="579" spans="1:10">
       <c r="A579">
-        <v>1698012000</v>
+        <v>1698001200</v>
       </c>
       <c r="B579" t="s">
         <v>536</v>
@@ -21169,7 +21169,7 @@
     </row>
     <row r="580" spans="1:10">
       <c r="A580">
-        <v>1698015600</v>
+        <v>1698004800</v>
       </c>
       <c r="B580" t="s">
         <v>537</v>
@@ -21201,7 +21201,7 @@
     </row>
     <row r="581" spans="1:10">
       <c r="A581">
-        <v>1698019200</v>
+        <v>1698008400</v>
       </c>
       <c r="B581" t="s">
         <v>538</v>
@@ -21233,7 +21233,7 @@
     </row>
     <row r="582" spans="1:10">
       <c r="A582">
-        <v>1698022800</v>
+        <v>1698012000</v>
       </c>
       <c r="B582" t="s">
         <v>539</v>
@@ -21265,7 +21265,7 @@
     </row>
     <row r="583" spans="1:10">
       <c r="A583">
-        <v>1698026400</v>
+        <v>1698015600</v>
       </c>
       <c r="B583" t="s">
         <v>540</v>
@@ -21297,7 +21297,7 @@
     </row>
     <row r="584" spans="1:10">
       <c r="A584">
-        <v>1698030000</v>
+        <v>1698019200</v>
       </c>
       <c r="B584" t="s">
         <v>541</v>
@@ -21329,7 +21329,7 @@
     </row>
     <row r="585" spans="1:10">
       <c r="A585">
-        <v>1698033600</v>
+        <v>1698022800</v>
       </c>
       <c r="B585" t="s">
         <v>542</v>
@@ -21361,7 +21361,7 @@
     </row>
     <row r="586" spans="1:10">
       <c r="A586">
-        <v>1698037200</v>
+        <v>1698026400</v>
       </c>
       <c r="B586" t="s">
         <v>543</v>
@@ -21393,7 +21393,7 @@
     </row>
     <row r="587" spans="1:10">
       <c r="A587">
-        <v>1698040800</v>
+        <v>1698030000</v>
       </c>
       <c r="B587" t="s">
         <v>544</v>
@@ -21425,7 +21425,7 @@
     </row>
     <row r="588" spans="1:10">
       <c r="A588">
-        <v>1698044400</v>
+        <v>1698033600</v>
       </c>
       <c r="B588" t="s">
         <v>545</v>
@@ -21457,7 +21457,7 @@
     </row>
     <row r="589" spans="1:10">
       <c r="A589">
-        <v>1698048000</v>
+        <v>1698037200</v>
       </c>
       <c r="B589" t="s">
         <v>546</v>
@@ -21489,7 +21489,7 @@
     </row>
     <row r="590" spans="1:10">
       <c r="A590">
-        <v>1698051600</v>
+        <v>1698040800</v>
       </c>
       <c r="B590" t="s">
         <v>547</v>
@@ -21521,7 +21521,7 @@
     </row>
     <row r="591" spans="1:10">
       <c r="A591">
-        <v>1698055200</v>
+        <v>1698044400</v>
       </c>
       <c r="B591" t="s">
         <v>548</v>
@@ -21553,7 +21553,7 @@
     </row>
     <row r="592" spans="1:10">
       <c r="A592">
-        <v>1698058800</v>
+        <v>1698048000</v>
       </c>
       <c r="B592" t="s">
         <v>549</v>
@@ -21585,7 +21585,7 @@
     </row>
     <row r="593" spans="1:10">
       <c r="A593">
-        <v>1698062400</v>
+        <v>1698051600</v>
       </c>
       <c r="B593" t="s">
         <v>550</v>
@@ -21617,7 +21617,7 @@
     </row>
     <row r="594" spans="1:10">
       <c r="A594">
-        <v>1698066000</v>
+        <v>1698055200</v>
       </c>
       <c r="B594" t="s">
         <v>551</v>
@@ -21649,7 +21649,7 @@
     </row>
     <row r="595" spans="1:10">
       <c r="A595">
-        <v>1698069600</v>
+        <v>1698058800</v>
       </c>
       <c r="B595" t="s">
         <v>552</v>
@@ -21672,7 +21672,7 @@
     </row>
     <row r="596" spans="1:10">
       <c r="A596">
-        <v>1698069600</v>
+        <v>1698058800</v>
       </c>
       <c r="B596" t="s">
         <v>552</v>
@@ -21704,7 +21704,7 @@
     </row>
     <row r="597" spans="1:10">
       <c r="A597">
-        <v>1698073200</v>
+        <v>1698062400</v>
       </c>
       <c r="B597" t="s">
         <v>553</v>
@@ -21736,7 +21736,7 @@
     </row>
     <row r="598" spans="1:10">
       <c r="A598">
-        <v>1698073200</v>
+        <v>1698062400</v>
       </c>
       <c r="B598" t="s">
         <v>553</v>
@@ -21759,7 +21759,7 @@
     </row>
     <row r="599" spans="1:10">
       <c r="A599">
-        <v>1698076800</v>
+        <v>1698066000</v>
       </c>
       <c r="B599" t="s">
         <v>554</v>
@@ -21791,7 +21791,7 @@
     </row>
     <row r="600" spans="1:10">
       <c r="A600">
-        <v>1698076800</v>
+        <v>1698066000</v>
       </c>
       <c r="B600" t="s">
         <v>554</v>
@@ -21814,7 +21814,7 @@
     </row>
     <row r="601" spans="1:10">
       <c r="A601">
-        <v>1698080400</v>
+        <v>1698069600</v>
       </c>
       <c r="B601" t="s">
         <v>555</v>
@@ -21837,7 +21837,7 @@
     </row>
     <row r="602" spans="1:10">
       <c r="A602">
-        <v>1698080400</v>
+        <v>1698069600</v>
       </c>
       <c r="B602" t="s">
         <v>555</v>
@@ -21869,7 +21869,7 @@
     </row>
     <row r="603" spans="1:10">
       <c r="A603">
-        <v>1698084000</v>
+        <v>1698073200</v>
       </c>
       <c r="B603" t="s">
         <v>556</v>
@@ -21901,7 +21901,7 @@
     </row>
     <row r="604" spans="1:10">
       <c r="A604">
-        <v>1698084000</v>
+        <v>1698073200</v>
       </c>
       <c r="B604" t="s">
         <v>556</v>
@@ -21924,7 +21924,7 @@
     </row>
     <row r="605" spans="1:10">
       <c r="A605">
-        <v>1698087600</v>
+        <v>1698076800</v>
       </c>
       <c r="B605" t="s">
         <v>557</v>
@@ -21947,7 +21947,7 @@
     </row>
     <row r="606" spans="1:10">
       <c r="A606">
-        <v>1698087600</v>
+        <v>1698076800</v>
       </c>
       <c r="B606" t="s">
         <v>557</v>
@@ -21979,7 +21979,7 @@
     </row>
     <row r="607" spans="1:10">
       <c r="A607">
-        <v>1698091200</v>
+        <v>1698080400</v>
       </c>
       <c r="B607" t="s">
         <v>558</v>
@@ -22002,7 +22002,7 @@
     </row>
     <row r="608" spans="1:10">
       <c r="A608">
-        <v>1698091200</v>
+        <v>1698080400</v>
       </c>
       <c r="B608" t="s">
         <v>558</v>
@@ -22034,7 +22034,7 @@
     </row>
     <row r="609" spans="1:10">
       <c r="A609">
-        <v>1698094800</v>
+        <v>1698084000</v>
       </c>
       <c r="B609" t="s">
         <v>559</v>
@@ -22066,7 +22066,7 @@
     </row>
     <row r="610" spans="1:10">
       <c r="A610">
-        <v>1698094800</v>
+        <v>1698084000</v>
       </c>
       <c r="B610" t="s">
         <v>559</v>
@@ -22089,7 +22089,7 @@
     </row>
     <row r="611" spans="1:10">
       <c r="A611">
-        <v>1698098400</v>
+        <v>1698087600</v>
       </c>
       <c r="B611" t="s">
         <v>560</v>
@@ -22112,7 +22112,7 @@
     </row>
     <row r="612" spans="1:10">
       <c r="A612">
-        <v>1698098400</v>
+        <v>1698087600</v>
       </c>
       <c r="B612" t="s">
         <v>560</v>
@@ -22144,7 +22144,7 @@
     </row>
     <row r="613" spans="1:10">
       <c r="A613">
-        <v>1698102000</v>
+        <v>1698091200</v>
       </c>
       <c r="B613" t="s">
         <v>561</v>
@@ -22176,7 +22176,7 @@
     </row>
     <row r="614" spans="1:10">
       <c r="A614">
-        <v>1698102000</v>
+        <v>1698091200</v>
       </c>
       <c r="B614" t="s">
         <v>561</v>
@@ -22199,7 +22199,7 @@
     </row>
     <row r="615" spans="1:10">
       <c r="A615">
-        <v>1698105600</v>
+        <v>1698094800</v>
       </c>
       <c r="B615" t="s">
         <v>562</v>
@@ -22222,7 +22222,7 @@
     </row>
     <row r="616" spans="1:10">
       <c r="A616">
-        <v>1698105600</v>
+        <v>1698094800</v>
       </c>
       <c r="B616" t="s">
         <v>562</v>
@@ -22254,7 +22254,7 @@
     </row>
     <row r="617" spans="1:10">
       <c r="A617">
-        <v>1698109200</v>
+        <v>1698098400</v>
       </c>
       <c r="B617" t="s">
         <v>563</v>
@@ -22277,7 +22277,7 @@
     </row>
     <row r="618" spans="1:10">
       <c r="A618">
-        <v>1698109200</v>
+        <v>1698098400</v>
       </c>
       <c r="B618" t="s">
         <v>563</v>
@@ -22309,7 +22309,7 @@
     </row>
     <row r="619" spans="1:10">
       <c r="A619">
-        <v>1698112800</v>
+        <v>1698102000</v>
       </c>
       <c r="B619" t="s">
         <v>564</v>
@@ -22332,7 +22332,7 @@
     </row>
     <row r="620" spans="1:10">
       <c r="A620">
-        <v>1698112800</v>
+        <v>1698102000</v>
       </c>
       <c r="B620" t="s">
         <v>564</v>
@@ -22364,7 +22364,7 @@
     </row>
     <row r="621" spans="1:10">
       <c r="A621">
-        <v>1698116400</v>
+        <v>1698105600</v>
       </c>
       <c r="B621" t="s">
         <v>565</v>
@@ -22396,7 +22396,7 @@
     </row>
     <row r="622" spans="1:10">
       <c r="A622">
-        <v>1698116400</v>
+        <v>1698105600</v>
       </c>
       <c r="B622" t="s">
         <v>565</v>
@@ -22419,7 +22419,7 @@
     </row>
     <row r="623" spans="1:10">
       <c r="A623">
-        <v>1698120000</v>
+        <v>1698109200</v>
       </c>
       <c r="B623" t="s">
         <v>566</v>
@@ -22451,7 +22451,7 @@
     </row>
     <row r="624" spans="1:10">
       <c r="A624">
-        <v>1698120000</v>
+        <v>1698109200</v>
       </c>
       <c r="B624" t="s">
         <v>566</v>
@@ -22474,7 +22474,7 @@
     </row>
     <row r="625" spans="1:10">
       <c r="A625">
-        <v>1698123600</v>
+        <v>1698112800</v>
       </c>
       <c r="B625" t="s">
         <v>567</v>
@@ -22506,7 +22506,7 @@
     </row>
     <row r="626" spans="1:10">
       <c r="A626">
-        <v>1698123600</v>
+        <v>1698112800</v>
       </c>
       <c r="B626" t="s">
         <v>567</v>
@@ -22529,7 +22529,7 @@
     </row>
     <row r="627" spans="1:10">
       <c r="A627">
-        <v>1698127200</v>
+        <v>1698116400</v>
       </c>
       <c r="B627" t="s">
         <v>568</v>
@@ -22552,7 +22552,7 @@
     </row>
     <row r="628" spans="1:10">
       <c r="A628">
-        <v>1698127200</v>
+        <v>1698116400</v>
       </c>
       <c r="B628" t="s">
         <v>568</v>
@@ -22584,7 +22584,7 @@
     </row>
     <row r="629" spans="1:10">
       <c r="A629">
-        <v>1698130800</v>
+        <v>1698120000</v>
       </c>
       <c r="B629" t="s">
         <v>569</v>
@@ -22616,7 +22616,7 @@
     </row>
     <row r="630" spans="1:10">
       <c r="A630">
-        <v>1698130800</v>
+        <v>1698120000</v>
       </c>
       <c r="B630" t="s">
         <v>569</v>
@@ -22639,7 +22639,7 @@
     </row>
     <row r="631" spans="1:10">
       <c r="A631">
-        <v>1698134400</v>
+        <v>1698123600</v>
       </c>
       <c r="B631" t="s">
         <v>570</v>
@@ -22671,7 +22671,7 @@
     </row>
     <row r="632" spans="1:10">
       <c r="A632">
-        <v>1698134400</v>
+        <v>1698123600</v>
       </c>
       <c r="B632" t="s">
         <v>570</v>
@@ -22694,7 +22694,7 @@
     </row>
     <row r="633" spans="1:10">
       <c r="A633">
-        <v>1698138000</v>
+        <v>1698127200</v>
       </c>
       <c r="B633" t="s">
         <v>571</v>
@@ -22726,7 +22726,7 @@
     </row>
     <row r="634" spans="1:10">
       <c r="A634">
-        <v>1698138000</v>
+        <v>1698127200</v>
       </c>
       <c r="B634" t="s">
         <v>571</v>
@@ -22749,7 +22749,7 @@
     </row>
     <row r="635" spans="1:10">
       <c r="A635">
-        <v>1698141600</v>
+        <v>1698130800</v>
       </c>
       <c r="B635" t="s">
         <v>572</v>
@@ -22781,7 +22781,7 @@
     </row>
     <row r="636" spans="1:10">
       <c r="A636">
-        <v>1698141600</v>
+        <v>1698130800</v>
       </c>
       <c r="B636" t="s">
         <v>572</v>
@@ -22804,7 +22804,7 @@
     </row>
     <row r="637" spans="1:10">
       <c r="A637">
-        <v>1698145200</v>
+        <v>1698134400</v>
       </c>
       <c r="B637" t="s">
         <v>573</v>
@@ -22827,7 +22827,7 @@
     </row>
     <row r="638" spans="1:10">
       <c r="A638">
-        <v>1698145200</v>
+        <v>1698134400</v>
       </c>
       <c r="B638" t="s">
         <v>573</v>
@@ -22859,7 +22859,7 @@
     </row>
     <row r="639" spans="1:10">
       <c r="A639">
-        <v>1698145200</v>
+        <v>1698134400</v>
       </c>
       <c r="B639" t="s">
         <v>573</v>
@@ -22891,7 +22891,7 @@
     </row>
     <row r="640" spans="1:10">
       <c r="A640">
-        <v>1698148800</v>
+        <v>1698138000</v>
       </c>
       <c r="B640" t="s">
         <v>574</v>
@@ -22923,7 +22923,7 @@
     </row>
     <row r="641" spans="1:10">
       <c r="A641">
-        <v>1698148800</v>
+        <v>1698138000</v>
       </c>
       <c r="B641" t="s">
         <v>574</v>
@@ -22946,7 +22946,7 @@
     </row>
     <row r="642" spans="1:10">
       <c r="A642">
-        <v>1698148800</v>
+        <v>1698138000</v>
       </c>
       <c r="B642" t="s">
         <v>574</v>
@@ -22978,7 +22978,7 @@
     </row>
     <row r="643" spans="1:10">
       <c r="A643">
-        <v>1698152400</v>
+        <v>1698141600</v>
       </c>
       <c r="B643" t="s">
         <v>575</v>
@@ -23010,7 +23010,7 @@
     </row>
     <row r="644" spans="1:10">
       <c r="A644">
-        <v>1698152400</v>
+        <v>1698141600</v>
       </c>
       <c r="B644" t="s">
         <v>575</v>
@@ -23042,7 +23042,7 @@
     </row>
     <row r="645" spans="1:10">
       <c r="A645">
-        <v>1698152400</v>
+        <v>1698141600</v>
       </c>
       <c r="B645" t="s">
         <v>575</v>
@@ -23065,7 +23065,7 @@
     </row>
     <row r="646" spans="1:10">
       <c r="A646">
-        <v>1698156000</v>
+        <v>1698145200</v>
       </c>
       <c r="B646" t="s">
         <v>576</v>
@@ -23097,7 +23097,7 @@
     </row>
     <row r="647" spans="1:10">
       <c r="A647">
-        <v>1698156000</v>
+        <v>1698145200</v>
       </c>
       <c r="B647" t="s">
         <v>576</v>
@@ -23120,7 +23120,7 @@
     </row>
     <row r="648" spans="1:10">
       <c r="A648">
-        <v>1698156000</v>
+        <v>1698145200</v>
       </c>
       <c r="B648" t="s">
         <v>576</v>
@@ -23152,7 +23152,7 @@
     </row>
     <row r="649" spans="1:10">
       <c r="A649">
-        <v>1698159600</v>
+        <v>1698148800</v>
       </c>
       <c r="B649" t="s">
         <v>577</v>
@@ -23184,7 +23184,7 @@
     </row>
     <row r="650" spans="1:10">
       <c r="A650">
-        <v>1698159600</v>
+        <v>1698148800</v>
       </c>
       <c r="B650" t="s">
         <v>577</v>
@@ -23207,7 +23207,7 @@
     </row>
     <row r="651" spans="1:10">
       <c r="A651">
-        <v>1698163200</v>
+        <v>1698152400</v>
       </c>
       <c r="B651" t="s">
         <v>578</v>
@@ -23230,7 +23230,7 @@
     </row>
     <row r="652" spans="1:10">
       <c r="A652">
-        <v>1698163200</v>
+        <v>1698152400</v>
       </c>
       <c r="B652" t="s">
         <v>578</v>
@@ -23262,7 +23262,7 @@
     </row>
     <row r="653" spans="1:10">
       <c r="A653">
-        <v>1698166800</v>
+        <v>1698156000</v>
       </c>
       <c r="B653" t="s">
         <v>579</v>
@@ -23294,7 +23294,7 @@
     </row>
     <row r="654" spans="1:10">
       <c r="A654">
-        <v>1698166800</v>
+        <v>1698156000</v>
       </c>
       <c r="B654" t="s">
         <v>579</v>
@@ -23317,7 +23317,7 @@
     </row>
     <row r="655" spans="1:10">
       <c r="A655">
-        <v>1698170400</v>
+        <v>1698159600</v>
       </c>
       <c r="B655" t="s">
         <v>580</v>
@@ -23340,7 +23340,7 @@
     </row>
     <row r="656" spans="1:10">
       <c r="A656">
-        <v>1698170400</v>
+        <v>1698159600</v>
       </c>
       <c r="B656" t="s">
         <v>580</v>
@@ -23372,7 +23372,7 @@
     </row>
     <row r="657" spans="1:10">
       <c r="A657">
-        <v>1698174000</v>
+        <v>1698163200</v>
       </c>
       <c r="B657" t="s">
         <v>581</v>
@@ -23404,7 +23404,7 @@
     </row>
     <row r="658" spans="1:10">
       <c r="A658">
-        <v>1698174000</v>
+        <v>1698163200</v>
       </c>
       <c r="B658" t="s">
         <v>581</v>
@@ -23427,7 +23427,7 @@
     </row>
     <row r="659" spans="1:10">
       <c r="A659">
-        <v>1698177600</v>
+        <v>1698166800</v>
       </c>
       <c r="B659" t="s">
         <v>582</v>
@@ -23459,7 +23459,7 @@
     </row>
     <row r="660" spans="1:10">
       <c r="A660">
-        <v>1698177600</v>
+        <v>1698166800</v>
       </c>
       <c r="B660" t="s">
         <v>582</v>
@@ -23482,7 +23482,7 @@
     </row>
     <row r="661" spans="1:10">
       <c r="A661">
-        <v>1698181200</v>
+        <v>1698170400</v>
       </c>
       <c r="B661" t="s">
         <v>583</v>
@@ -23505,7 +23505,7 @@
     </row>
     <row r="662" spans="1:10">
       <c r="A662">
-        <v>1698181200</v>
+        <v>1698170400</v>
       </c>
       <c r="B662" t="s">
         <v>583</v>
@@ -23537,7 +23537,7 @@
     </row>
     <row r="663" spans="1:10">
       <c r="A663">
-        <v>1698184800</v>
+        <v>1698174000</v>
       </c>
       <c r="B663" t="s">
         <v>584</v>
@@ -23560,7 +23560,7 @@
     </row>
     <row r="664" spans="1:10">
       <c r="A664">
-        <v>1698184800</v>
+        <v>1698174000</v>
       </c>
       <c r="B664" t="s">
         <v>584</v>
@@ -23592,7 +23592,7 @@
     </row>
     <row r="665" spans="1:10">
       <c r="A665">
-        <v>1698188400</v>
+        <v>1698177600</v>
       </c>
       <c r="B665" t="s">
         <v>585</v>
@@ -23624,7 +23624,7 @@
     </row>
     <row r="666" spans="1:10">
       <c r="A666">
-        <v>1698188400</v>
+        <v>1698177600</v>
       </c>
       <c r="B666" t="s">
         <v>585</v>
@@ -23647,7 +23647,7 @@
     </row>
     <row r="667" spans="1:10">
       <c r="A667">
-        <v>1698192000</v>
+        <v>1698181200</v>
       </c>
       <c r="B667" t="s">
         <v>586</v>
@@ -23679,7 +23679,7 @@
     </row>
     <row r="668" spans="1:10">
       <c r="A668">
-        <v>1698192000</v>
+        <v>1698181200</v>
       </c>
       <c r="B668" t="s">
         <v>586</v>
@@ -23702,7 +23702,7 @@
     </row>
     <row r="669" spans="1:10">
       <c r="A669">
-        <v>1698195600</v>
+        <v>1698184800</v>
       </c>
       <c r="B669" t="s">
         <v>587</v>
@@ -23734,7 +23734,7 @@
     </row>
     <row r="670" spans="1:10">
       <c r="A670">
-        <v>1698195600</v>
+        <v>1698184800</v>
       </c>
       <c r="B670" t="s">
         <v>587</v>
@@ -23757,7 +23757,7 @@
     </row>
     <row r="671" spans="1:10">
       <c r="A671">
-        <v>1698199200</v>
+        <v>1698188400</v>
       </c>
       <c r="B671" t="s">
         <v>588</v>
@@ -23780,7 +23780,7 @@
     </row>
     <row r="672" spans="1:10">
       <c r="A672">
-        <v>1698199200</v>
+        <v>1698188400</v>
       </c>
       <c r="B672" t="s">
         <v>588</v>
@@ -23812,7 +23812,7 @@
     </row>
     <row r="673" spans="1:10">
       <c r="A673">
-        <v>1698202800</v>
+        <v>1698192000</v>
       </c>
       <c r="B673" t="s">
         <v>589</v>
@@ -23844,7 +23844,7 @@
     </row>
     <row r="674" spans="1:10">
       <c r="A674">
-        <v>1698202800</v>
+        <v>1698192000</v>
       </c>
       <c r="B674" t="s">
         <v>589</v>
@@ -23867,7 +23867,7 @@
     </row>
     <row r="675" spans="1:10">
       <c r="A675">
-        <v>1698206400</v>
+        <v>1698195600</v>
       </c>
       <c r="B675" t="s">
         <v>590</v>
@@ -23899,7 +23899,7 @@
     </row>
     <row r="676" spans="1:10">
       <c r="A676">
-        <v>1698206400</v>
+        <v>1698195600</v>
       </c>
       <c r="B676" t="s">
         <v>590</v>
@@ -23922,7 +23922,7 @@
     </row>
     <row r="677" spans="1:10">
       <c r="A677">
-        <v>1698210000</v>
+        <v>1698199200</v>
       </c>
       <c r="B677" t="s">
         <v>591</v>
@@ -23945,7 +23945,7 @@
     </row>
     <row r="678" spans="1:10">
       <c r="A678">
-        <v>1698210000</v>
+        <v>1698199200</v>
       </c>
       <c r="B678" t="s">
         <v>591</v>
@@ -23977,7 +23977,7 @@
     </row>
     <row r="679" spans="1:10">
       <c r="A679">
-        <v>1698213600</v>
+        <v>1698202800</v>
       </c>
       <c r="B679" t="s">
         <v>592</v>
@@ -24009,7 +24009,7 @@
     </row>
     <row r="680" spans="1:10">
       <c r="A680">
-        <v>1698213600</v>
+        <v>1698202800</v>
       </c>
       <c r="B680" t="s">
         <v>592</v>
@@ -24032,7 +24032,7 @@
     </row>
     <row r="681" spans="1:10">
       <c r="A681">
-        <v>1698217200</v>
+        <v>1698206400</v>
       </c>
       <c r="B681" t="s">
         <v>593</v>
@@ -24055,7 +24055,7 @@
     </row>
     <row r="682" spans="1:10">
       <c r="A682">
-        <v>1698217200</v>
+        <v>1698206400</v>
       </c>
       <c r="B682" t="s">
         <v>593</v>
@@ -24087,7 +24087,7 @@
     </row>
     <row r="683" spans="1:10">
       <c r="A683">
-        <v>1698220800</v>
+        <v>1698210000</v>
       </c>
       <c r="B683" t="s">
         <v>594</v>
@@ -24110,7 +24110,7 @@
     </row>
     <row r="684" spans="1:10">
       <c r="A684">
-        <v>1698220800</v>
+        <v>1698210000</v>
       </c>
       <c r="B684" t="s">
         <v>594</v>
@@ -24142,7 +24142,7 @@
     </row>
     <row r="685" spans="1:10">
       <c r="A685">
-        <v>1698224400</v>
+        <v>1698213600</v>
       </c>
       <c r="B685" t="s">
         <v>595</v>
@@ -24165,7 +24165,7 @@
     </row>
     <row r="686" spans="1:10">
       <c r="A686">
-        <v>1698224400</v>
+        <v>1698213600</v>
       </c>
       <c r="B686" t="s">
         <v>595</v>
@@ -24197,7 +24197,7 @@
     </row>
     <row r="687" spans="1:10">
       <c r="A687">
-        <v>1698228000</v>
+        <v>1698217200</v>
       </c>
       <c r="B687" t="s">
         <v>596</v>
@@ -24229,7 +24229,7 @@
     </row>
     <row r="688" spans="1:10">
       <c r="A688">
-        <v>1698228000</v>
+        <v>1698217200</v>
       </c>
       <c r="B688" t="s">
         <v>596</v>
@@ -24252,7 +24252,7 @@
     </row>
     <row r="689" spans="1:10">
       <c r="A689">
-        <v>1698231600</v>
+        <v>1698220800</v>
       </c>
       <c r="B689" t="s">
         <v>597</v>
@@ -24284,7 +24284,7 @@
     </row>
     <row r="690" spans="1:10">
       <c r="A690">
-        <v>1698231600</v>
+        <v>1698220800</v>
       </c>
       <c r="B690" t="s">
         <v>597</v>
@@ -24307,7 +24307,7 @@
     </row>
     <row r="691" spans="1:10">
       <c r="A691">
-        <v>1698235200</v>
+        <v>1698224400</v>
       </c>
       <c r="B691" t="s">
         <v>598</v>
@@ -24330,7 +24330,7 @@
     </row>
     <row r="692" spans="1:10">
       <c r="A692">
-        <v>1698235200</v>
+        <v>1698224400</v>
       </c>
       <c r="B692" t="s">
         <v>598</v>
@@ -24362,7 +24362,7 @@
     </row>
     <row r="693" spans="1:10">
       <c r="A693">
-        <v>1698238800</v>
+        <v>1698228000</v>
       </c>
       <c r="B693" t="s">
         <v>599</v>
@@ -24385,7 +24385,7 @@
     </row>
     <row r="694" spans="1:10">
       <c r="A694">
-        <v>1698242400</v>
+        <v>1698231600</v>
       </c>
       <c r="B694" t="s">
         <v>600</v>
@@ -24408,7 +24408,7 @@
     </row>
     <row r="695" spans="1:10">
       <c r="A695">
-        <v>1698246000</v>
+        <v>1698235200</v>
       </c>
       <c r="B695" t="s">
         <v>601</v>
@@ -24431,7 +24431,7 @@
     </row>
     <row r="696" spans="1:10">
       <c r="A696">
-        <v>1698249600</v>
+        <v>1698238800</v>
       </c>
       <c r="B696" t="s">
         <v>602</v>
@@ -24454,7 +24454,7 @@
     </row>
     <row r="697" spans="1:10">
       <c r="A697">
-        <v>1698253200</v>
+        <v>1698242400</v>
       </c>
       <c r="B697" t="s">
         <v>603</v>
@@ -24477,7 +24477,7 @@
     </row>
     <row r="698" spans="1:10">
       <c r="A698">
-        <v>1698256800</v>
+        <v>1698246000</v>
       </c>
       <c r="B698" t="s">
         <v>604</v>
@@ -24500,7 +24500,7 @@
     </row>
     <row r="699" spans="1:10">
       <c r="A699">
-        <v>1698260400</v>
+        <v>1698249600</v>
       </c>
       <c r="B699" t="s">
         <v>605</v>
@@ -24523,7 +24523,7 @@
     </row>
     <row r="700" spans="1:10">
       <c r="A700">
-        <v>1698264000</v>
+        <v>1698253200</v>
       </c>
       <c r="B700" t="s">
         <v>606</v>
@@ -24546,7 +24546,7 @@
     </row>
     <row r="701" spans="1:10">
       <c r="A701">
-        <v>1698267600</v>
+        <v>1698256800</v>
       </c>
       <c r="B701" t="s">
         <v>607</v>
@@ -24569,7 +24569,7 @@
     </row>
     <row r="702" spans="1:10">
       <c r="A702">
-        <v>1698271200</v>
+        <v>1698260400</v>
       </c>
       <c r="B702" t="s">
         <v>608</v>
@@ -24592,7 +24592,7 @@
     </row>
     <row r="703" spans="1:10">
       <c r="A703">
-        <v>1698274800</v>
+        <v>1698264000</v>
       </c>
       <c r="B703" t="s">
         <v>609</v>
@@ -24615,7 +24615,7 @@
     </row>
     <row r="704" spans="1:10">
       <c r="A704">
-        <v>1698278400</v>
+        <v>1698267600</v>
       </c>
       <c r="B704" t="s">
         <v>610</v>
@@ -24638,7 +24638,7 @@
     </row>
     <row r="705" spans="1:10">
       <c r="A705">
-        <v>1698282000</v>
+        <v>1698271200</v>
       </c>
       <c r="B705" t="s">
         <v>611</v>
@@ -24661,7 +24661,7 @@
     </row>
     <row r="706" spans="1:10">
       <c r="A706">
-        <v>1698285600</v>
+        <v>1698274800</v>
       </c>
       <c r="B706" t="s">
         <v>612</v>
@@ -24684,7 +24684,7 @@
     </row>
     <row r="707" spans="1:10">
       <c r="A707">
-        <v>1698289200</v>
+        <v>1698278400</v>
       </c>
       <c r="B707" t="s">
         <v>613</v>
@@ -24707,7 +24707,7 @@
     </row>
     <row r="708" spans="1:10">
       <c r="A708">
-        <v>1698292800</v>
+        <v>1698282000</v>
       </c>
       <c r="B708" t="s">
         <v>614</v>
@@ -24730,7 +24730,7 @@
     </row>
     <row r="709" spans="1:10">
       <c r="A709">
-        <v>1698296400</v>
+        <v>1698285600</v>
       </c>
       <c r="B709" t="s">
         <v>615</v>
@@ -24753,7 +24753,7 @@
     </row>
     <row r="710" spans="1:10">
       <c r="A710">
-        <v>1698300000</v>
+        <v>1698289200</v>
       </c>
       <c r="B710" t="s">
         <v>616</v>
@@ -24776,7 +24776,7 @@
     </row>
     <row r="711" spans="1:10">
       <c r="A711">
-        <v>1698303600</v>
+        <v>1698292800</v>
       </c>
       <c r="B711" t="s">
         <v>617</v>
@@ -24799,7 +24799,7 @@
     </row>
     <row r="712" spans="1:10">
       <c r="A712">
-        <v>1698307200</v>
+        <v>1698296400</v>
       </c>
       <c r="B712" t="s">
         <v>618</v>
@@ -24822,7 +24822,7 @@
     </row>
     <row r="713" spans="1:10">
       <c r="A713">
-        <v>1698310800</v>
+        <v>1698300000</v>
       </c>
       <c r="B713" t="s">
         <v>619</v>
@@ -24845,7 +24845,7 @@
     </row>
     <row r="714" spans="1:10">
       <c r="A714">
-        <v>1698314400</v>
+        <v>1698303600</v>
       </c>
       <c r="B714" t="s">
         <v>620</v>
@@ -24868,7 +24868,7 @@
     </row>
     <row r="715" spans="1:10">
       <c r="A715">
-        <v>1698318000</v>
+        <v>1698307200</v>
       </c>
       <c r="B715" t="s">
         <v>621</v>
@@ -24891,7 +24891,7 @@
     </row>
     <row r="716" spans="1:10">
       <c r="A716">
-        <v>1698321600</v>
+        <v>1698310800</v>
       </c>
       <c r="B716" t="s">
         <v>622</v>
@@ -24914,7 +24914,7 @@
     </row>
     <row r="717" spans="1:10">
       <c r="A717">
-        <v>1698325200</v>
+        <v>1698314400</v>
       </c>
       <c r="B717" t="s">
         <v>623</v>
@@ -24937,7 +24937,7 @@
     </row>
     <row r="718" spans="1:10">
       <c r="A718">
-        <v>1698328800</v>
+        <v>1698318000</v>
       </c>
       <c r="B718" t="s">
         <v>624</v>
@@ -24960,7 +24960,7 @@
     </row>
     <row r="719" spans="1:10">
       <c r="A719">
-        <v>1698332400</v>
+        <v>1698321600</v>
       </c>
       <c r="B719" t="s">
         <v>625</v>
@@ -24983,7 +24983,7 @@
     </row>
     <row r="720" spans="1:10">
       <c r="A720">
-        <v>1698336000</v>
+        <v>1698325200</v>
       </c>
       <c r="B720" t="s">
         <v>626</v>
@@ -25006,7 +25006,7 @@
     </row>
     <row r="721" spans="1:10">
       <c r="A721">
-        <v>1698339600</v>
+        <v>1698328800</v>
       </c>
       <c r="B721" t="s">
         <v>627</v>
@@ -25029,7 +25029,7 @@
     </row>
     <row r="722" spans="1:10">
       <c r="A722">
-        <v>1698343200</v>
+        <v>1698332400</v>
       </c>
       <c r="B722" t="s">
         <v>628</v>
@@ -25052,7 +25052,7 @@
     </row>
     <row r="723" spans="1:10">
       <c r="A723">
-        <v>1698346800</v>
+        <v>1698336000</v>
       </c>
       <c r="B723" t="s">
         <v>629</v>
@@ -25075,7 +25075,7 @@
     </row>
     <row r="724" spans="1:10">
       <c r="A724">
-        <v>1698350400</v>
+        <v>1698339600</v>
       </c>
       <c r="B724" t="s">
         <v>630</v>
@@ -25098,7 +25098,7 @@
     </row>
     <row r="725" spans="1:10">
       <c r="A725">
-        <v>1698354000</v>
+        <v>1698343200</v>
       </c>
       <c r="B725" t="s">
         <v>631</v>
@@ -25121,7 +25121,7 @@
     </row>
     <row r="726" spans="1:10">
       <c r="A726">
-        <v>1698357600</v>
+        <v>1698346800</v>
       </c>
       <c r="B726" t="s">
         <v>632</v>
@@ -25144,7 +25144,7 @@
     </row>
     <row r="727" spans="1:10">
       <c r="A727">
-        <v>1698361200</v>
+        <v>1698350400</v>
       </c>
       <c r="B727" t="s">
         <v>633</v>
@@ -25167,7 +25167,7 @@
     </row>
     <row r="728" spans="1:10">
       <c r="A728">
-        <v>1698364800</v>
+        <v>1698354000</v>
       </c>
       <c r="B728" t="s">
         <v>634</v>
@@ -25190,7 +25190,7 @@
     </row>
     <row r="729" spans="1:10">
       <c r="A729">
-        <v>1698368400</v>
+        <v>1698357600</v>
       </c>
       <c r="B729" t="s">
         <v>635</v>
@@ -25213,7 +25213,7 @@
     </row>
     <row r="730" spans="1:10">
       <c r="A730">
-        <v>1698372000</v>
+        <v>1698361200</v>
       </c>
       <c r="B730" t="s">
         <v>636</v>
@@ -25236,7 +25236,7 @@
     </row>
     <row r="731" spans="1:10">
       <c r="A731">
-        <v>1698375600</v>
+        <v>1698364800</v>
       </c>
       <c r="B731" t="s">
         <v>637</v>
@@ -25259,7 +25259,7 @@
     </row>
     <row r="732" spans="1:10">
       <c r="A732">
-        <v>1698379200</v>
+        <v>1698368400</v>
       </c>
       <c r="B732" t="s">
         <v>638</v>
@@ -25282,7 +25282,7 @@
     </row>
     <row r="733" spans="1:10">
       <c r="A733">
-        <v>1698382800</v>
+        <v>1698372000</v>
       </c>
       <c r="B733" t="s">
         <v>639</v>
@@ -25305,7 +25305,7 @@
     </row>
     <row r="734" spans="1:10">
       <c r="A734">
-        <v>1698386400</v>
+        <v>1698375600</v>
       </c>
       <c r="B734" t="s">
         <v>640</v>
@@ -25328,7 +25328,7 @@
     </row>
     <row r="735" spans="1:10">
       <c r="A735">
-        <v>1698390000</v>
+        <v>1698379200</v>
       </c>
       <c r="B735" t="s">
         <v>641</v>
@@ -25351,7 +25351,7 @@
     </row>
     <row r="736" spans="1:10">
       <c r="A736">
-        <v>1698393600</v>
+        <v>1698382800</v>
       </c>
       <c r="B736" t="s">
         <v>642</v>
@@ -25374,7 +25374,7 @@
     </row>
     <row r="737" spans="1:10">
       <c r="A737">
-        <v>1698397200</v>
+        <v>1698386400</v>
       </c>
       <c r="B737" t="s">
         <v>643</v>
@@ -25397,7 +25397,7 @@
     </row>
     <row r="738" spans="1:10">
       <c r="A738">
-        <v>1698400800</v>
+        <v>1698390000</v>
       </c>
       <c r="B738" t="s">
         <v>644</v>
@@ -25420,7 +25420,7 @@
     </row>
     <row r="739" spans="1:10">
       <c r="A739">
-        <v>1698404400</v>
+        <v>1698393600</v>
       </c>
       <c r="B739" t="s">
         <v>645</v>
@@ -25443,7 +25443,7 @@
     </row>
     <row r="740" spans="1:10">
       <c r="A740">
-        <v>1698408000</v>
+        <v>1698397200</v>
       </c>
       <c r="B740" t="s">
         <v>646</v>
@@ -25466,7 +25466,7 @@
     </row>
     <row r="741" spans="1:10">
       <c r="A741">
-        <v>1698411600</v>
+        <v>1698400800</v>
       </c>
       <c r="B741" t="s">
         <v>647</v>
@@ -25489,7 +25489,7 @@
     </row>
     <row r="742" spans="1:10">
       <c r="A742">
-        <v>1698415200</v>
+        <v>1698404400</v>
       </c>
       <c r="B742" t="s">
         <v>648</v>
@@ -25512,7 +25512,7 @@
     </row>
     <row r="743" spans="1:10">
       <c r="A743">
-        <v>1698418800</v>
+        <v>1698408000</v>
       </c>
       <c r="B743" t="s">
         <v>649</v>
@@ -25535,7 +25535,7 @@
     </row>
     <row r="744" spans="1:10">
       <c r="A744">
-        <v>1698422400</v>
+        <v>1698411600</v>
       </c>
       <c r="B744" t="s">
         <v>650</v>
@@ -25558,7 +25558,7 @@
     </row>
     <row r="745" spans="1:10">
       <c r="A745">
-        <v>1698426000</v>
+        <v>1698415200</v>
       </c>
       <c r="B745" t="s">
         <v>651</v>
@@ -25581,7 +25581,7 @@
     </row>
     <row r="746" spans="1:10">
       <c r="A746">
-        <v>1698429600</v>
+        <v>1698418800</v>
       </c>
       <c r="B746" t="s">
         <v>652</v>
@@ -25604,7 +25604,7 @@
     </row>
     <row r="747" spans="1:10">
       <c r="A747">
-        <v>1698433200</v>
+        <v>1698422400</v>
       </c>
       <c r="B747" t="s">
         <v>653</v>
@@ -25627,7 +25627,7 @@
     </row>
     <row r="748" spans="1:10">
       <c r="A748">
-        <v>1698436800</v>
+        <v>1698426000</v>
       </c>
       <c r="B748" t="s">
         <v>654</v>
@@ -25650,7 +25650,7 @@
     </row>
     <row r="749" spans="1:10">
       <c r="A749">
-        <v>1698440400</v>
+        <v>1698429600</v>
       </c>
       <c r="B749" t="s">
         <v>655</v>
@@ -25673,7 +25673,7 @@
     </row>
     <row r="750" spans="1:10">
       <c r="A750">
-        <v>1698444000</v>
+        <v>1698433200</v>
       </c>
       <c r="B750" t="s">
         <v>656</v>
@@ -25696,7 +25696,7 @@
     </row>
     <row r="751" spans="1:10">
       <c r="A751">
-        <v>1698447600</v>
+        <v>1698436800</v>
       </c>
       <c r="B751" t="s">
         <v>657</v>
@@ -25719,7 +25719,7 @@
     </row>
     <row r="752" spans="1:10">
       <c r="A752">
-        <v>1698451200</v>
+        <v>1698440400</v>
       </c>
       <c r="B752" t="s">
         <v>658</v>
@@ -25742,7 +25742,7 @@
     </row>
     <row r="753" spans="1:10">
       <c r="A753">
-        <v>1698454800</v>
+        <v>1698444000</v>
       </c>
       <c r="B753" t="s">
         <v>659</v>
@@ -25765,7 +25765,7 @@
     </row>
     <row r="754" spans="1:10">
       <c r="A754">
-        <v>1698458400</v>
+        <v>1698447600</v>
       </c>
       <c r="B754" t="s">
         <v>660</v>
@@ -25788,7 +25788,7 @@
     </row>
     <row r="755" spans="1:10">
       <c r="A755">
-        <v>1698462000</v>
+        <v>1698451200</v>
       </c>
       <c r="B755" t="s">
         <v>661</v>
@@ -25811,7 +25811,7 @@
     </row>
     <row r="756" spans="1:10">
       <c r="A756">
-        <v>1698465600</v>
+        <v>1698454800</v>
       </c>
       <c r="B756" t="s">
         <v>662</v>
@@ -25834,7 +25834,7 @@
     </row>
     <row r="757" spans="1:10">
       <c r="A757">
-        <v>1698469200</v>
+        <v>1698458400</v>
       </c>
       <c r="B757" t="s">
         <v>663</v>
@@ -25857,7 +25857,7 @@
     </row>
     <row r="758" spans="1:10">
       <c r="A758">
-        <v>1698472800</v>
+        <v>1698462000</v>
       </c>
       <c r="B758" t="s">
         <v>664</v>
@@ -25880,7 +25880,7 @@
     </row>
     <row r="759" spans="1:10">
       <c r="A759">
-        <v>1698476400</v>
+        <v>1698465600</v>
       </c>
       <c r="B759" t="s">
         <v>665</v>
@@ -25903,7 +25903,7 @@
     </row>
     <row r="760" spans="1:10">
       <c r="A760">
-        <v>1698480000</v>
+        <v>1698469200</v>
       </c>
       <c r="B760" t="s">
         <v>666</v>
@@ -25926,7 +25926,7 @@
     </row>
     <row r="761" spans="1:10">
       <c r="A761">
-        <v>1698483600</v>
+        <v>1698472800</v>
       </c>
       <c r="B761" t="s">
         <v>667</v>
@@ -25949,7 +25949,7 @@
     </row>
     <row r="762" spans="1:10">
       <c r="A762">
-        <v>1698487200</v>
+        <v>1698476400</v>
       </c>
       <c r="B762" t="s">
         <v>668</v>
@@ -25972,7 +25972,7 @@
     </row>
     <row r="763" spans="1:10">
       <c r="A763">
-        <v>1698490800</v>
+        <v>1698480000</v>
       </c>
       <c r="B763" t="s">
         <v>669</v>
@@ -25995,7 +25995,7 @@
     </row>
     <row r="764" spans="1:10">
       <c r="A764">
-        <v>1698494400</v>
+        <v>1698483600</v>
       </c>
       <c r="B764" t="s">
         <v>670</v>
@@ -26018,7 +26018,7 @@
     </row>
     <row r="765" spans="1:10">
       <c r="A765">
-        <v>1698498000</v>
+        <v>1698487200</v>
       </c>
       <c r="B765" t="s">
         <v>671</v>
@@ -26041,7 +26041,7 @@
     </row>
     <row r="766" spans="1:10">
       <c r="A766">
-        <v>1698501600</v>
+        <v>1698490800</v>
       </c>
       <c r="B766" t="s">
         <v>672</v>
@@ -26064,7 +26064,7 @@
     </row>
     <row r="767" spans="1:10">
       <c r="A767">
-        <v>1698505200</v>
+        <v>1698494400</v>
       </c>
       <c r="B767" t="s">
         <v>673</v>
@@ -26087,7 +26087,7 @@
     </row>
     <row r="768" spans="1:10">
       <c r="A768">
-        <v>1698508800</v>
+        <v>1698498000</v>
       </c>
       <c r="B768" t="s">
         <v>674</v>
@@ -26110,7 +26110,7 @@
     </row>
     <row r="769" spans="1:10">
       <c r="A769">
-        <v>1698512400</v>
+        <v>1698501600</v>
       </c>
       <c r="B769" t="s">
         <v>675</v>
@@ -26133,7 +26133,7 @@
     </row>
     <row r="770" spans="1:10">
       <c r="A770">
-        <v>1698516000</v>
+        <v>1698505200</v>
       </c>
       <c r="B770" t="s">
         <v>676</v>
@@ -26156,7 +26156,7 @@
     </row>
     <row r="771" spans="1:10">
       <c r="A771">
-        <v>1698519600</v>
+        <v>1698508800</v>
       </c>
       <c r="B771" t="s">
         <v>677</v>
@@ -26179,7 +26179,7 @@
     </row>
     <row r="772" spans="1:10">
       <c r="A772">
-        <v>1698523200</v>
+        <v>1698512400</v>
       </c>
       <c r="B772" t="s">
         <v>678</v>
@@ -26202,7 +26202,7 @@
     </row>
     <row r="773" spans="1:10">
       <c r="A773">
-        <v>1698526800</v>
+        <v>1698516000</v>
       </c>
       <c r="B773" t="s">
         <v>679</v>
@@ -26225,7 +26225,7 @@
     </row>
     <row r="774" spans="1:10">
       <c r="A774">
-        <v>1698530400</v>
+        <v>1698519600</v>
       </c>
       <c r="B774" t="s">
         <v>680</v>
@@ -26248,7 +26248,7 @@
     </row>
     <row r="775" spans="1:10">
       <c r="A775">
-        <v>1698534000</v>
+        <v>1698523200</v>
       </c>
       <c r="B775" t="s">
         <v>681</v>
@@ -26271,7 +26271,7 @@
     </row>
     <row r="776" spans="1:10">
       <c r="A776">
-        <v>1698537600</v>
+        <v>1698526800</v>
       </c>
       <c r="B776" t="s">
         <v>682</v>
@@ -26294,7 +26294,7 @@
     </row>
     <row r="777" spans="1:10">
       <c r="A777">
-        <v>1698541200</v>
+        <v>1698530400</v>
       </c>
       <c r="B777" t="s">
         <v>683</v>
@@ -26317,7 +26317,7 @@
     </row>
     <row r="778" spans="1:10">
       <c r="A778">
-        <v>1698544800</v>
+        <v>1698534000</v>
       </c>
       <c r="B778" t="s">
         <v>684</v>
@@ -26340,7 +26340,7 @@
     </row>
     <row r="779" spans="1:10">
       <c r="A779">
-        <v>1698548400</v>
+        <v>1698537600</v>
       </c>
       <c r="B779" t="s">
         <v>685</v>
@@ -26363,7 +26363,7 @@
     </row>
     <row r="780" spans="1:10">
       <c r="A780">
-        <v>1698552000</v>
+        <v>1698541200</v>
       </c>
       <c r="B780" t="s">
         <v>686</v>
@@ -26386,7 +26386,7 @@
     </row>
     <row r="781" spans="1:10">
       <c r="A781">
-        <v>1698555600</v>
+        <v>1698544800</v>
       </c>
       <c r="B781" t="s">
         <v>687</v>
@@ -26409,7 +26409,7 @@
     </row>
     <row r="782" spans="1:10">
       <c r="A782">
-        <v>1698559200</v>
+        <v>1698548400</v>
       </c>
       <c r="B782" t="s">
         <v>688</v>
@@ -26432,7 +26432,7 @@
     </row>
     <row r="783" spans="1:10">
       <c r="A783">
-        <v>1698562800</v>
+        <v>1698552000</v>
       </c>
       <c r="B783" t="s">
         <v>689</v>
@@ -26455,7 +26455,7 @@
     </row>
     <row r="784" spans="1:10">
       <c r="A784">
-        <v>1698566400</v>
+        <v>1698555600</v>
       </c>
       <c r="B784" t="s">
         <v>690</v>
@@ -26478,7 +26478,7 @@
     </row>
     <row r="785" spans="1:10">
       <c r="A785">
-        <v>1698570000</v>
+        <v>1698559200</v>
       </c>
       <c r="B785" t="s">
         <v>691</v>
@@ -26501,7 +26501,7 @@
     </row>
     <row r="786" spans="1:10">
       <c r="A786">
-        <v>1698573600</v>
+        <v>1698562800</v>
       </c>
       <c r="B786" t="s">
         <v>692</v>
@@ -26524,7 +26524,7 @@
     </row>
     <row r="787" spans="1:10">
       <c r="A787">
-        <v>1698577200</v>
+        <v>1698566400</v>
       </c>
       <c r="B787" t="s">
         <v>693</v>
@@ -26547,7 +26547,7 @@
     </row>
     <row r="788" spans="1:10">
       <c r="A788">
-        <v>1698580800</v>
+        <v>1698570000</v>
       </c>
       <c r="B788" t="s">
         <v>694</v>
@@ -26570,7 +26570,7 @@
     </row>
     <row r="789" spans="1:10">
       <c r="A789">
-        <v>1698584400</v>
+        <v>1698573600</v>
       </c>
       <c r="B789" t="s">
         <v>695</v>
@@ -26593,7 +26593,7 @@
     </row>
     <row r="790" spans="1:10">
       <c r="A790">
-        <v>1698588000</v>
+        <v>1698577200</v>
       </c>
       <c r="B790" t="s">
         <v>696</v>
@@ -26616,7 +26616,7 @@
     </row>
     <row r="791" spans="1:10">
       <c r="A791">
-        <v>1698591600</v>
+        <v>1698580800</v>
       </c>
       <c r="B791" t="s">
         <v>697</v>
@@ -26639,7 +26639,7 @@
     </row>
     <row r="792" spans="1:10">
       <c r="A792">
-        <v>1698595200</v>
+        <v>1698584400</v>
       </c>
       <c r="B792" t="s">
         <v>698</v>
@@ -26662,7 +26662,7 @@
     </row>
     <row r="793" spans="1:10">
       <c r="A793">
-        <v>1698598800</v>
+        <v>1698588000</v>
       </c>
       <c r="B793" t="s">
         <v>699</v>
@@ -26685,7 +26685,7 @@
     </row>
     <row r="794" spans="1:10">
       <c r="A794">
-        <v>1698602400</v>
+        <v>1698591600</v>
       </c>
       <c r="B794" t="s">
         <v>700</v>
@@ -26708,7 +26708,7 @@
     </row>
     <row r="795" spans="1:10">
       <c r="A795">
-        <v>1698606000</v>
+        <v>1698595200</v>
       </c>
       <c r="B795" t="s">
         <v>701</v>
@@ -26731,7 +26731,7 @@
     </row>
     <row r="796" spans="1:10">
       <c r="A796">
-        <v>1698609600</v>
+        <v>1698598800</v>
       </c>
       <c r="B796" t="s">
         <v>702</v>
@@ -26754,7 +26754,7 @@
     </row>
     <row r="797" spans="1:10">
       <c r="A797">
-        <v>1698613200</v>
+        <v>1698602400</v>
       </c>
       <c r="B797" t="s">
         <v>703</v>
@@ -26777,7 +26777,7 @@
     </row>
     <row r="798" spans="1:10">
       <c r="A798">
-        <v>1698616800</v>
+        <v>1698606000</v>
       </c>
       <c r="B798" t="s">
         <v>704</v>
@@ -26800,7 +26800,7 @@
     </row>
     <row r="799" spans="1:10">
       <c r="A799">
-        <v>1698620400</v>
+        <v>1698609600</v>
       </c>
       <c r="B799" t="s">
         <v>705</v>
@@ -26823,7 +26823,7 @@
     </row>
     <row r="800" spans="1:10">
       <c r="A800">
-        <v>1698624000</v>
+        <v>1698613200</v>
       </c>
       <c r="B800" t="s">
         <v>706</v>
@@ -26846,7 +26846,7 @@
     </row>
     <row r="801" spans="1:10">
       <c r="A801">
-        <v>1698627600</v>
+        <v>1698616800</v>
       </c>
       <c r="B801" t="s">
         <v>707</v>
@@ -26869,7 +26869,7 @@
     </row>
     <row r="802" spans="1:10">
       <c r="A802">
-        <v>1698631200</v>
+        <v>1698620400</v>
       </c>
       <c r="B802" t="s">
         <v>708</v>
@@ -26892,7 +26892,7 @@
     </row>
     <row r="803" spans="1:10">
       <c r="A803">
-        <v>1698634800</v>
+        <v>1698624000</v>
       </c>
       <c r="B803" t="s">
         <v>709</v>
@@ -26915,7 +26915,7 @@
     </row>
     <row r="804" spans="1:10">
       <c r="A804">
-        <v>1698638400</v>
+        <v>1698627600</v>
       </c>
       <c r="B804" t="s">
         <v>710</v>
@@ -26938,7 +26938,7 @@
     </row>
     <row r="805" spans="1:10">
       <c r="A805">
-        <v>1698642000</v>
+        <v>1698631200</v>
       </c>
       <c r="B805" t="s">
         <v>711</v>
@@ -26961,7 +26961,7 @@
     </row>
     <row r="806" spans="1:10">
       <c r="A806">
-        <v>1698645600</v>
+        <v>1698634800</v>
       </c>
       <c r="B806" t="s">
         <v>712</v>
@@ -26984,7 +26984,7 @@
     </row>
     <row r="807" spans="1:10">
       <c r="A807">
-        <v>1698649200</v>
+        <v>1698638400</v>
       </c>
       <c r="B807" t="s">
         <v>713</v>
@@ -27007,7 +27007,7 @@
     </row>
     <row r="808" spans="1:10">
       <c r="A808">
-        <v>1698652800</v>
+        <v>1698642000</v>
       </c>
       <c r="B808" t="s">
         <v>714</v>
@@ -27030,7 +27030,7 @@
     </row>
     <row r="809" spans="1:10">
       <c r="A809">
-        <v>1698656400</v>
+        <v>1698645600</v>
       </c>
       <c r="B809" t="s">
         <v>715</v>
@@ -27053,7 +27053,7 @@
     </row>
     <row r="810" spans="1:10">
       <c r="A810">
-        <v>1698660000</v>
+        <v>1698649200</v>
       </c>
       <c r="B810" t="s">
         <v>716</v>
@@ -27076,7 +27076,7 @@
     </row>
     <row r="811" spans="1:10">
       <c r="A811">
-        <v>1698663600</v>
+        <v>1698652800</v>
       </c>
       <c r="B811" t="s">
         <v>717</v>
@@ -27099,7 +27099,7 @@
     </row>
     <row r="812" spans="1:10">
       <c r="A812">
-        <v>1698667200</v>
+        <v>1698656400</v>
       </c>
       <c r="B812" t="s">
         <v>718</v>
@@ -27122,7 +27122,7 @@
     </row>
     <row r="813" spans="1:10">
       <c r="A813">
-        <v>1698670800</v>
+        <v>1698660000</v>
       </c>
       <c r="B813" t="s">
         <v>719</v>
@@ -27145,7 +27145,7 @@
     </row>
     <row r="814" spans="1:10">
       <c r="A814">
-        <v>1698674400</v>
+        <v>1698663600</v>
       </c>
       <c r="B814" t="s">
         <v>720</v>
@@ -27168,7 +27168,7 @@
     </row>
     <row r="815" spans="1:10">
       <c r="A815">
-        <v>1698678000</v>
+        <v>1698667200</v>
       </c>
       <c r="B815" t="s">
         <v>721</v>
@@ -27191,7 +27191,7 @@
     </row>
     <row r="816" spans="1:10">
       <c r="A816">
-        <v>1698681600</v>
+        <v>1698670800</v>
       </c>
       <c r="B816" t="s">
         <v>722</v>
@@ -27214,7 +27214,7 @@
     </row>
     <row r="817" spans="1:10">
       <c r="A817">
-        <v>1698685200</v>
+        <v>1698674400</v>
       </c>
       <c r="B817" t="s">
         <v>723</v>
@@ -27237,7 +27237,7 @@
     </row>
     <row r="818" spans="1:10">
       <c r="A818">
-        <v>1698688800</v>
+        <v>1698678000</v>
       </c>
       <c r="B818" t="s">
         <v>724</v>
@@ -27260,7 +27260,7 @@
     </row>
     <row r="819" spans="1:10">
       <c r="A819">
-        <v>1698692400</v>
+        <v>1698681600</v>
       </c>
       <c r="B819" t="s">
         <v>725</v>
@@ -27283,7 +27283,7 @@
     </row>
     <row r="820" spans="1:10">
       <c r="A820">
-        <v>1698696000</v>
+        <v>1698685200</v>
       </c>
       <c r="B820" t="s">
         <v>726</v>
@@ -27306,7 +27306,7 @@
     </row>
     <row r="821" spans="1:10">
       <c r="A821">
-        <v>1698699600</v>
+        <v>1698688800</v>
       </c>
       <c r="B821" t="s">
         <v>727</v>
@@ -27329,7 +27329,7 @@
     </row>
     <row r="822" spans="1:10">
       <c r="A822">
-        <v>1698703200</v>
+        <v>1698692400</v>
       </c>
       <c r="B822" t="s">
         <v>728</v>
@@ -27352,7 +27352,7 @@
     </row>
     <row r="823" spans="1:10">
       <c r="A823">
-        <v>1698706800</v>
+        <v>1698696000</v>
       </c>
       <c r="B823" t="s">
         <v>729</v>
@@ -27375,7 +27375,7 @@
     </row>
     <row r="824" spans="1:10">
       <c r="A824">
-        <v>1698710400</v>
+        <v>1698699600</v>
       </c>
       <c r="B824" t="s">
         <v>730</v>
@@ -27398,7 +27398,7 @@
     </row>
     <row r="825" spans="1:10">
       <c r="A825">
-        <v>1698714000</v>
+        <v>1698703200</v>
       </c>
       <c r="B825" t="s">
         <v>731</v>
@@ -27421,7 +27421,7 @@
     </row>
     <row r="826" spans="1:10">
       <c r="A826">
-        <v>1698717600</v>
+        <v>1698706800</v>
       </c>
       <c r="B826" t="s">
         <v>732</v>
@@ -27444,7 +27444,7 @@
     </row>
     <row r="827" spans="1:10">
       <c r="A827">
-        <v>1698721200</v>
+        <v>1698710400</v>
       </c>
       <c r="B827" t="s">
         <v>733</v>
@@ -27467,7 +27467,7 @@
     </row>
     <row r="828" spans="1:10">
       <c r="A828">
-        <v>1698724800</v>
+        <v>1698714000</v>
       </c>
       <c r="B828" t="s">
         <v>734</v>
@@ -27490,7 +27490,7 @@
     </row>
     <row r="829" spans="1:10">
       <c r="A829">
-        <v>1698728400</v>
+        <v>1698717600</v>
       </c>
       <c r="B829" t="s">
         <v>735</v>
@@ -27513,7 +27513,7 @@
     </row>
     <row r="830" spans="1:10">
       <c r="A830">
-        <v>1698732000</v>
+        <v>1698721200</v>
       </c>
       <c r="B830" t="s">
         <v>736</v>
@@ -27536,7 +27536,7 @@
     </row>
     <row r="831" spans="1:10">
       <c r="A831">
-        <v>1698735600</v>
+        <v>1698724800</v>
       </c>
       <c r="B831" t="s">
         <v>737</v>
@@ -27559,7 +27559,7 @@
     </row>
     <row r="832" spans="1:10">
       <c r="A832">
-        <v>1698739200</v>
+        <v>1698728400</v>
       </c>
       <c r="B832" t="s">
         <v>738</v>
@@ -27582,7 +27582,7 @@
     </row>
     <row r="833" spans="1:10">
       <c r="A833">
-        <v>1698742800</v>
+        <v>1698732000</v>
       </c>
       <c r="B833" t="s">
         <v>739</v>
@@ -27605,7 +27605,7 @@
     </row>
     <row r="834" spans="1:10">
       <c r="A834">
-        <v>1698746400</v>
+        <v>1698735600</v>
       </c>
       <c r="B834" t="s">
         <v>740</v>
@@ -27628,7 +27628,7 @@
     </row>
     <row r="835" spans="1:10">
       <c r="A835">
-        <v>1698750000</v>
+        <v>1698739200</v>
       </c>
       <c r="B835" t="s">
         <v>741</v>
@@ -27651,7 +27651,7 @@
     </row>
     <row r="836" spans="1:10">
       <c r="A836">
-        <v>1698753600</v>
+        <v>1698742800</v>
       </c>
       <c r="B836" t="s">
         <v>742</v>
@@ -27674,7 +27674,7 @@
     </row>
     <row r="837" spans="1:10">
       <c r="A837">
-        <v>1698757200</v>
+        <v>1698746400</v>
       </c>
       <c r="B837" t="s">
         <v>743</v>
@@ -27697,7 +27697,7 @@
     </row>
     <row r="838" spans="1:10">
       <c r="A838">
-        <v>1698760800</v>
+        <v>1698750000</v>
       </c>
       <c r="B838" t="s">
         <v>744</v>
@@ -27720,7 +27720,7 @@
     </row>
     <row r="839" spans="1:10">
       <c r="A839">
-        <v>1698764400</v>
+        <v>1698753600</v>
       </c>
       <c r="B839" t="s">
         <v>745</v>
@@ -27743,7 +27743,7 @@
     </row>
     <row r="840" spans="1:10">
       <c r="A840">
-        <v>1698768000</v>
+        <v>1698757200</v>
       </c>
       <c r="B840" t="s">
         <v>746</v>
@@ -27766,7 +27766,7 @@
     </row>
     <row r="841" spans="1:10">
       <c r="A841">
-        <v>1698771600</v>
+        <v>1698760800</v>
       </c>
       <c r="B841" t="s">
         <v>747</v>
@@ -27789,7 +27789,7 @@
     </row>
     <row r="842" spans="1:10">
       <c r="A842">
-        <v>1698775200</v>
+        <v>1698764400</v>
       </c>
       <c r="B842" t="s">
         <v>748</v>
@@ -27812,7 +27812,7 @@
     </row>
     <row r="843" spans="1:10">
       <c r="A843">
-        <v>1698778800</v>
+        <v>1698768000</v>
       </c>
       <c r="B843" t="s">
         <v>749</v>
@@ -27835,7 +27835,7 @@
     </row>
     <row r="844" spans="1:10">
       <c r="A844">
-        <v>1698782400</v>
+        <v>1698771600</v>
       </c>
       <c r="B844" t="s">
         <v>750</v>
@@ -27858,7 +27858,7 @@
     </row>
     <row r="845" spans="1:10">
       <c r="A845">
-        <v>1698786000</v>
+        <v>1698775200</v>
       </c>
       <c r="B845" t="s">
         <v>751</v>
@@ -27881,7 +27881,7 @@
     </row>
     <row r="846" spans="1:10">
       <c r="A846">
-        <v>1698789600</v>
+        <v>1698778800</v>
       </c>
       <c r="B846" t="s">
         <v>752</v>
@@ -27904,7 +27904,7 @@
     </row>
     <row r="847" spans="1:10">
       <c r="A847">
-        <v>1698793200</v>
+        <v>1698782400</v>
       </c>
       <c r="B847" t="s">
         <v>753</v>
